--- a/TarlaDalal_Scraping_Project/src/test/resources/PCOS_Eliminated_ToAdd_Allergy_Recipe_Details.xlsx
+++ b/TarlaDalal_Scraping_Project/src/test/resources/PCOS_Eliminated_ToAdd_Allergy_Recipe_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7063" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13129" uniqueCount="254">
   <si>
     <t xml:space="preserve">                                                                                                                               PCOS_Eliminated_Recipe_Data</t>
   </si>
@@ -2445,67 +2445,67 @@
         <v>31</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="I11" t="s" s="0">
         <v>31</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="N11" t="s" s="0">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="P11" t="s" s="0">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="Q11" t="s" s="0">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="R11" t="s" s="0">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="S11" t="s" s="0">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="T11" t="s" s="0">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="U11" t="s" s="0">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="V11" t="s" s="0">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="W11" t="s" s="0">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="X11" t="s" s="0">
         <v>31</v>
@@ -3272,19 +3272,19 @@
         <v>21</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="G11" t="s" s="0">
         <v>31</v>

--- a/TarlaDalal_Scraping_Project/src/test/resources/PCOS_Eliminated_ToAdd_Allergy_Recipe_Details.xlsx
+++ b/TarlaDalal_Scraping_Project/src/test/resources/PCOS_Eliminated_ToAdd_Allergy_Recipe_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13129" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24224" uniqueCount="678">
   <si>
     <t xml:space="preserve">                                                                                                                               PCOS_Eliminated_Recipe_Data</t>
   </si>
@@ -1068,6 +1068,2228 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/healthy-strawberry-milkshake-indian-strawberry-milkshake-with-almond-milk-39024r</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>Heat a small non-stick pan and dry roast all the ingredients on a medium flame for 2 minutes.
+Transfer the mixture into a plate and cool completely.
+Once cooled blend in a mixer till smooth. Keep aside.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 115 cal
+Protein 5.2 g
+Carbohydrates 17.5 g
+Fiber 2.2 g
+Fat 2.9 g
+Cholesterol 0 mg
+Sodium 10.5 mg</t>
+  </si>
+  <si>
+    <t>To make masoor dal with spinach, pour 1½ cups of water in a pressure cooker, add the masoor dal, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a kadhai, add the cumin seeds, mix well and sauté on a medium flame for a few seconds.
+Add the onions and sauté on a medium flame for 2 to 3 minutes.
+Add the cooked masoor dal, spinach, turmeric powder, dry mango powder, prepared garlic- ginger-green chilli paste, tomatoes and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add 1 cup of water and chilli powder, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Serve masoor dal with spinach hot with rotis.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 186 cal
+Protein 10.2 g
+Carbohydrates 24 g
+Fiber 4.9 g
+Fat 5.4 g
+Cholesterol 0 mg
+Sodium 15.3 mg</t>
+  </si>
+  <si>
+    <t>7 mins</t>
+  </si>
+  <si>
+    <t>To make oats and vegetable broth, heat the oil in a deep non-stick pan, add the onions, garlic and green chillies and sauté on a medium flame for 1 minute.
+Add all the vegetables and sauté on a medium flame for another 2 minutes.
+Add the oats and sauté on a medium flame for 1 more minute.
+Add 3 cups of hot water, salt and pepper, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the coriander and parsley, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the lemon juice and mix well.
+Serve the oats and vegetable broth immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 90 cal
+Protein 2.4 g
+Carbohydrates 12.7 g
+Fiber 3.4 g
+Fat 3.3 g
+Cholesterol 0 mg
+Sodium 18.1 mg</t>
+  </si>
+  <si>
+    <t>Combine the urad dal and fenugreek seeds along with enough water in a deep bowl and soak for 2 hours. Drain well.
+Blend in a mixer using ½ cup of water till smooth.
+Transfer the urad dal-fenugreek seeds mixture into a deep bowl, add the spinach purée, whole wheat flour, salt and approx. 1 cup of water and mix very well.
+Heat a non-stick tava (griddle), sprinkle a little water on it and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 175 mm. (7”) diameter thin circle.
+Smear ¼ tsp of oil over it and along the edges and cook on a medium flame till the dosa turns light brown in colour from both the sides.
+Repeat steps 4 to 6 to make 7 more dosas.
+Serve immediately with sambhar and coconut chutney.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per dosa
+Energy 94 cal
+Protein 3.9 g
+Carbohydrates 16.2 g
+Fiber 3.2 g
+Fat 1.8 g
+Cholesterol 0 mg
+Sodium 15.9 mg</t>
+  </si>
+  <si>
+    <t>12 mins</t>
+  </si>
+  <si>
+    <t>Combine the yellow moong dal , spinach and green chillies and blend in a mixer to a smooth paste without using any water.
+Transfer the mixture into a bowl, add the curds and salt and mix well.
+Just before steaming, add the fruit salt to the batter and pour 2 tsp water over it.
+When the bubbles form, mix gently.
+Grease the idli moulds using oil, put spoonfuls of the batter into idli moulds and steam in a steamer for 10 to 12 minutes or till the idlis are cooked.
+Cool slightly, demould and serve immediately with sambhar and healthy coconut chutney.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per idli
+Energy 26 cal
+Protein 1.8 g
+Carbohydrates 4.2 g
+Fiber 0.8 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 8.6 mg</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients along with approx. ½ cup of water in a deep bowl and mix well to make a batter of pouring consistency.
+Grease a non-stick tava (griddle) using ½ tsp of oil, pour one ladleful of the batter on it and spread it to form 75 mm. (3”) diameter thick circle.
+Cook it, using ¼ tsp of oil, till it turns crisp and golden brown in colour from both sides.
+Repeat with the remaining batter to make 5 more pancakes.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per pancake
+Energy 86 cal
+Protein 2.3 g
+Carbohydrates 14.1 g
+Fiber 1.7 g
+Fat 2.3 g
+Cholesterol 0 mg
+Sodium 8.4 mg</t>
+  </si>
+  <si>
+    <t>16 mins</t>
+  </si>
+  <si>
+    <t>Heat a broad non-stick pan, add all the ingredients and dry roast on a medium flame for 1 minute. Keep aside and allow it to cool completely.
+Transfer the mixture to the mixer and blend it to a smooth powder. Keep aside.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 236 cal
+Protein 5.6 g
+Carbohydrates 44.6 g
+Fiber 5.3 g
+Fat 3.8 g
+Cholesterol 0 mg
+Sodium 4 mg</t>
+  </si>
+  <si>
+    <t>To make carrot methi subzi, heat the oil in a non-stick kadhai and add the cumin seeds.
+When the seeds crackle, add the onions and sauté on a medium flame for 1 minute.
+Add the green chillies and garlic, mix well and sauté on a medium flame for 30 seconds.
+Add the fenugreek leaves, turmeric powder,coriander powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the carrots, salt and 1 cup of water, mix well and cover and cook for 7 to 8 minutes, while stirring occasionally.
+Serve the carrot methi subzi hot with whole wheat parathas or rotis.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 55 cal
+Protein 1.2 g
+Carbohydrates 6.6 g
+Fiber 2.6 g
+Fat 2.7 g
+Cholesterol 0 mg
+Sodium 21.6 mg</t>
+  </si>
+  <si>
+    <t>18 mins</t>
+  </si>
+  <si>
+    <t>To make oats and roasted capsicum soup, pierce each red capsicum with a fork and roast them over an open flame till they turn black.
+Cool, wash them and remove the skin, stem and seeds and chop them. Keep aside.
+Combine the tomatoes, bayleaves and garlic along with 2½ cups of water in a deep non-stick kadhai and cook on a medium flame for 10 minutes, while stirring occasionally or till the tomatoes turn soft. Discard the bayleaves.
+Remove from the flame and allow it to cool completely. Once cooled, combine the capsicum and tomatoes and blend in a mixer till smooth.
+Transfer the mixture into a deep non-stick pan, add the chilli flakes, salt and ½ cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the roasted oats, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Serve the oats and roasted capsicum soup immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 61 cal
+Protein 2.9 g
+Carbohydrates 10.7 g
+Fiber 3.6 g
+Fat 0.9 g
+Cholesterol 0 mg
+Sodium 12.1 mg</t>
+  </si>
+  <si>
+    <t>To make cauliflower and bajra roti, combine all the ingredients and knead into a soft-smooth dough, using enough water.
+Divide the dough into 6 equal portions.
+Roll out one portion of the dough into a circle of 100 mm. (4") diameter.
+Heat a non-stick tava (griddle) using 1/4 tsp of oil.
+Place the roti on it and cook it, using 1/4 tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat steps 3 to 5 to make 5 more parathas.
+Serve the cauliflower and bajra roti immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per roti
+Energy 46 cal
+Protein 1.2 g
+Carbohydrates 6 g
+Fiber 1.3 g
+Fat 1.9 g
+Cholesterol 0 mg
+Sodium 6.2 mg</t>
+  </si>
+  <si>
+    <t>To make dal fry with toor dal, combine the dals, 2½ cups of water, turmeric powder, and salt in a pressure cooker, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid and keep aside.
+Heat the ghee in a deep non-stick kadhai, add the mustard seeds, nigella seeds, cumin seeds and onions. Mix well and saute for 2-3 minutes.
+Add the grated ginger, garlic and green chilles and aute for 1-2 minutes.
+Add the kashmiri red chilli, curry leaves and and sauté on a medium flame for 2-3 minutes.
+Add the tomatoes and ¼ cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add chiili powder and a pinch of hing. Mx well and cook for about 1 minute.
+Add the cooked dal mixture and ¼ cup of water, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Add the garam masala, mix well and cook for 1-2 minutes.
+Serve the dal fry with toor dal immediately garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 207 cal
+Protein 9.7 g
+Carbohydrates 26 g
+Fiber 4.3 g
+Fat 7.2 g
+Cholesterol 0 mg
+Sodium 12.7 mg</t>
+  </si>
+  <si>
+    <t>Make criss-cross on the base of the tomatoes and place them in boiling water for 2 to 3 minutes or till the skin begins to peel.
+Drain the tomatoes, cool slightly, peel, deseed and roughly chop them and blend in a mixer to a smooth pulp. Keep aside.
+Heat the olive oil in a broad non-stick pan, add the garlic and sauté on a medium flame for a few seconds.
+Add the onions and sauté on a medium flame for 1 to 2 minutes.
+Add the prepared tomato pulp, oregano, chilli flakes, tomato ketchup, chilli powder and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally. Keep aside.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per pizza
+Energy 92 cal
+Protein 3.3 g
+Carbohydrates 16 g
+Fiber 3.4 g
+Fat 2 g
+Cholesterol 0 mg
+Sodium 21.5 mg</t>
+  </si>
+  <si>
+    <t>To make cabbage, carrot and lettuce salad, combine all the ingredients together in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 29 cal
+Protein 1 g
+Carbohydrates 6 g
+Fiber 1.9 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 19.2 mg</t>
+  </si>
+  <si>
+    <t>To make masala makhana, heat a deep non-stick pan, add the makhanas and dry roast them on a medium flame for 4 to 5 minutes.
+Transfer the makhanas in the deep bowl and keep aside.
+Put the oil in the same pan, add red chilli powder, cumin seeds powder, chaat masala and salt and mix well.
+Switch on the flame, add the roasted makhanas, mix well and sauté it on a medium flame for 2 to 3 minutes.
+Serve the masala makhana immediately or cool it completely and store it in an airtight container. Use as required.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per cup
+Energy 128 cal
+Protein 3.8 g
+Carbohydrates 16.1 g
+Fiber 0 g
+Fat 5.5 g
+Cholesterol 0 mg
+Sodium 1.2 mg</t>
+  </si>
+  <si>
+    <t>To make date and walnut balls, combine all the ingredients in a deep bowl and mix well till the mixture binds well like a dough.
+Divide the mixture into 8 portions and shape each portion into a round ball.
+Serve the date and walnut balls immediately or store refrigerated in an air-tight container and serve it within 30 days.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per ball
+Energy 42 cal
+Protein 0.7 g
+Carbohydrates 4.2 g
+Fiber 1 g
+Fat 2.5 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>To make oats upma, heat 1 tsp of olive oil in a non-stick pan, add the oats and ½ tsp of turmeric powder and sauté on a medium flame for 3 to 4 minutes or till it turns light brown in colour, stirring occasionally. Keep aside.
+Heat the remaining 2 tsp of olive oil in a broad non-stick pan and add the mustard seeds.
+When the seeds crackle, add the urad dal, curry leaves, red chillies and green chillies and sauté on a medium flame for 1 minute.
+Add the onions and sauté on a medium flame for 1 minute or till the onions turn translucent.
+Add the carrots and green peas and sauté on a medium flame for 2 minutes.
+Add the oats mixture, sugar, salt and remaining ½ tsp of turmeric powder, mix well and cook on a medium flame for 1 minute, stirring continuously.
+Add 1½ cups of hot water, cover and cook on a slow flame for 2 minutes, stirring occasionally.
+Serve the oats upma immediately garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 207 cal
+Protein 7.4 g
+Carbohydrates 30.6 g
+Fiber 5.4 g
+Fat 6.4 g
+Cholesterol 0 mg
+Sodium 5.2 mg</t>
+  </si>
+  <si>
+    <t>To make healthy chawli masoor dal, combine the masoor dal, turmeric powder, salt and 1½ cups of water in a pressure cooker, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a deep non-stick pan and add the cumin seeds.
+When the seeds crackle, add the chawli leaves, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the cooked masoor dal, prepared paste, a little salt and ¾ cup of water, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Switch off the flame, add the lemon juice and mix well.
+Serve the healthy chawli masoor dal hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 125 cal
+Protein 6.9 g
+Carbohydrates 16.2 g
+Fiber 3.2 g
+Fat 3.6 g
+Cholesterol 0 mg
+Sodium 28 mg</t>
+  </si>
+  <si>
+    <t>To make rice and moong dal idli, soak the rice and green moong dal in a deep bowl with enough water for 2 hours.
+Soak the urad dal and fenugreek seeds in a deep bowl with enough water for 2 hours.
+Drain the rice and green moong dal mixture and blend in a mixer using approx. ½ cup of water till smooth.
+Drain the urad dal-fenugreek seeds in a mixer using approx. 5 tbsp of water till smooth.
+Transfer both the mixtures into a deep bowl, add the salt and mix very well.
+Cover with a lid and keep aside to ferment for 8 hours. Once fermented mix it very well.
+Put a little batter into each greased idli mould and steam in a steamer for 10 to 12 minutes or till the idlis are cooked.
+Cool the rice and moong dal idli slightly, demould and serve immediately with sambhar and chutney.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per idli
+Energy 52 cal
+Protein 2.8 g
+Carbohydrates 9.9 g
+Fiber 0.9 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 3.5 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 31058
+15 Oct 22</t>
+  </si>
+  <si>
+    <t>Sprouts Pancakes</t>
+  </si>
+  <si>
+    <t>for sprouts pancakes 1 cup sprouted moong  whole green gram  2 tbsp grated carrot 1/4 cup finely chopped spinach  palak  1/4 cup finely chopped fenugreek  methi  2 tbsp besan  bengal gram flour  1/2 tsp turmeric powder  haldi  1/4 tsp cumin seeds  jeera  1 1/2 tsp ginger-green chilli paste salt to taste 2 1/4 tsp oil</t>
+  </si>
+  <si>
+    <t>To make sprouts pancakes, combine the moong sprouts and ½ cup of water and blend in a mixer to a smooth paste.
+Transfer the paste into a bowl and add the carrots, spinach fenugreek, besan, turmeric powder, cumin seeds, ginger-green chilli paste, salt and 1 tsp oil and mix well till no lumps remain.
+Add 2 tbsp of water and mix well.
+Heat a non-stick tava (griddle) and grease it using ¼ tsp of oil.
+Pour a ladleful of batter and spread it evenly to make a 150 mm (6”) diameter circle and cook using ¼ tsp of oil, till it is golden brown in colour from both the sides.
+Repeat with the remaining batter to make 3 more pancakes.
+Serve the sprouts pancakes hot with green chutney.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per pancake
+Energy 110 cal
+Protein 5.6 g
+Carbohydrates 14.2 g
+Fiber 4.3 g
+Fat 3.4 g
+Cholesterol 0 mg
+Sodium 15.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouts-pancakes-31058r</t>
+  </si>
+  <si>
+    <t>Recipe# 32849
+18 Jan 21</t>
+  </si>
+  <si>
+    <t>Cabbage Foogath</t>
+  </si>
+  <si>
+    <t>for cabbage foogath 3/4 cup shredded cabbage 1 1/2 tbsp coconut oil or any other refined oil 1 tsp mustard seeds   rai / sarson  1 tsp urad dal  split black lentils  4 to 5 curry leaves  kadi patta  2 green chillies , slit 1/2 cup boiled green peas 1 tsp grated ginger  adrak  salt to taste 1/4 cup freshly grated coconut</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>To make cabbage foogath, heat the oil in a kadhai or a deep non-stick pan and add the mustard seeds.
+When the seeds crackle, add the urad dal, curry leaves and green chillies and sauté on a medium flame for a few seconds, while stirring continuously.
+Add the cabbage, green peas, ginger and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring once or twice in between.
+Add the coconut, mix gently and cook on a slow flame, while stirring continuously for another 1 to 2 minutes.
+Serve the cabbage foogathhot.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 129 cal
+Protein 2.4 g
+Carbohydrates 5.8 g
+Fiber 3.8 g
+Fat 10.7 g
+Cholesterol 0 mg
+Sodium 7.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-foogath-32849r</t>
+  </si>
+  <si>
+    <t>Recipe# 35090
+26 May 21</t>
+  </si>
+  <si>
+    <t>Nachni Sesame Khakhra ( Iron and Calcium Rich Recipe )</t>
+  </si>
+  <si>
+    <t>for nachni sesame khakhra 1/2 cup ragi  nachni / red millet  flour 1/2 cup whole wheat flour  gehun ka atta  2 tbsp roasted sesame seeds  til  1/4 tsp turmeric powder  haldi  1/2 tsp chilli powder salt to taste 2 1/4 tsp oil for kneading and cooking whole wheat flour  gehun ka atta  for rolling</t>
+  </si>
+  <si>
+    <t>Combine all ingredients in a bowl and knead into a firm dough, using enough warm water. Keep aside for 10 minutes.
+Knead again using ¼ tsp of oil and divide it into 8 equal portions.
+Roll out each portion into a 150 mm. (6”) diameter thin circle, using a little wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook each khakhra on a slow flame using ¼ tsp of oil till pink spots appear on both the sides.
+Continue cooking the khakhra on a slow flame, while pressing with a folded muslin cloth till it turns crisp and brown on both the sides.
+Serve immediately or store in an air-tight</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per khakhra
+Energy 84 cal
+Protein 2.1 g
+Carbohydrates 13 g
+Fiber 2.4 g
+Fat 2.7 g
+Cholesterol 0 mg
+Sodium 2.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/nachni-sesame-khakhra--iron-and-calcium-rich-recipe--35090r</t>
+  </si>
+  <si>
+    <t>Recipe# 7457
+18 Apr 22</t>
+  </si>
+  <si>
+    <t>Nutritious Thalipeeth</t>
+  </si>
+  <si>
+    <t>for nutritious thalipeeth 3 tbsp bajra  black millet  flour 3 tbsp jowar  white millet  flour 3 tbsp whole wheat flour  gehun ka atta  3 tbsp besan  bengal gram flour  3/4 cup shredded cabbage 1/4 cup chopped onions 1/2 tsp finely chopped green chillies 1/2 tsp coriander-cumin seeds  dhania-jeera  powder 2 tbsp chopped coriander  dhania  salt to taste 1 1/2 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>To nutritious thalipeeth, combine all the ingredients in a deep bowl and knead into a soft dough using enough water.
+Divide the dough into 6 equal portions and keep aside.
+Heat a non-stick tava (griddle) and grease it lightly using one eight tsp of oil.
+Wet your fingers, place a portion of the dough on a hot tava (griddle) and pat it with the help of fingers to make a 100 mm (4”) diameter circle.
+Cook on both the sides, using one eight tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat steps 3 to 5 to make 5 more nutritious thalipeeth.
+Serve the nutritious thalipeeth immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per thalipeeth
+Energy 88 cal
+Protein 3.2 g
+Carbohydrates 14.1 g
+Fiber 2.9 g
+Fat 2.1 g
+Cholesterol 0 mg
+Sodium 9.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/nutritious-thalipeeth-7457r</t>
+  </si>
+  <si>
+    <t>Recipe# 39015
+23 Jul 22</t>
+  </si>
+  <si>
+    <t>Carrot Melon Orange Juice, Kharbuja Gajar Santre ka Juice</t>
+  </si>
+  <si>
+    <t>for carrot melon orange juice 2 1/2 cups chilled and roughly chopped muskmelon  kharbooja  1 cup chilled and roughly chopped orange 1 cup chilled carrot juliennes 1 tsp lemon juice 1 tsp sugar , optional  for serving with carrot melon orange juice 8 ice-cubes</t>
+  </si>
+  <si>
+    <t>To make carrot melon orange juice, add the muskmelon, orange and carrots a few at a time in a hopper.
+Add the lemon juice and sugar to the juice and mix well.
+Pour equal quantities of the juice into 4 individual glasses.
+Serve the carrot melon orange juice, immediately topped with 2 ice-cubes in each glass.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per small glass
+Energy 49 cal
+Protein 0.8 g
+Carbohydrates 10.6 g
+Fiber 2.2 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 107.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-melon-orange-juice-kharbuja-gajar-santre-ka-juice-39015r</t>
+  </si>
+  <si>
+    <t>Recipe# 36411
+12 May 22</t>
+  </si>
+  <si>
+    <t>Healthy Moong Chaat</t>
+  </si>
+  <si>
+    <t>for healthy moong chaat 1 cup sprouted moong  whole green gram  1 tsp oil 1/4 tsp mustard seeds   rai / sarson  1/4 tsp cumin seeds  jeera  a few curry leaves  kadi patta  1/4 cup finely chopped onions 1 tsp ginger-garlic  adrak-lehsun  paste 1/2 tsp chilli powder a pinch of turmeric powder  haldi  1/2 tsp coriander-cumin seeds  dhania-jeera  powder 1/4 cup chopped tomatoes salt to taste  for serving 4 tbsp fresh whisked curds  dahi  salt to taste 2 tbsp finely chopped onions 2 tbsp chopped tomatoes 2 tbsp finely chopped coriander  dhania  2 pinches chilli powder</t>
+  </si>
+  <si>
+    <t>To make healthy moong chaat , heat the oil in a broad non-stick pan and add the mustard seeds and cumin seeds.
+When the seeds crackle, add the curry leaves and onions and sauté on a medium flame for 1 to 2 minutes.
+Add the ginger-garlic paste, chilli powder, turmeric powder, coriander-cumin seeds powder, tomatoes, sprouted moong, ¼ cup of water and salt, mix well and cook on a medium flame for 4 to 5 minutes or till the moong is partially cooked, while stirring occasionally.
+Remove from the flame and allow it to cool slightly. Divide the sprouted mixture into two equal portions.
+Place one portion of the sprouted moong mixture in a bowl, pour 2 tbsp of fresh curds and sprinkle a little salt, 1 tbsp of onions, 1 tbsp of tomatoes, 1 tbsp of coriander and a pinch of chilli powder over it.
+Repeat step 5 to make 1 more serving.
+Serve the healthy moong chaat immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 140 cal
+Protein 7.9 g
+Carbohydrates 20.4 g
+Fiber 5.7 g
+Fat 3 g
+Cholesterol 0 mg
+Sodium 12 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-moong-chaat-36411r</t>
+  </si>
+  <si>
+    <t>Recipe# 5695
+23 Jan 21</t>
+  </si>
+  <si>
+    <t>Jowar Methi Roti, Healthy Jowar Methi Paratha</t>
+  </si>
+  <si>
+    <t>for jowar methi roti 1 cup jowar  white millet  flour 1 cup finely chopped fenugreek  methi  leaves 1/2 cup finely chopped onions 1/4 cup finely chopped coriander  dhania  1 tsp chopped green chillies 1 tbsp black sesame seeds  kala til  salt to taste jowar  white millet  flour for rolling 1 1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>To make jowar methi roti recipe, combine all the ingredients in a bowl and knead into a soft dough using enough warm water. Cover with a lid and keep aside for 10 minutes.
+Divide the dough into 6 equal portions and roll out each portion into a 125 mm. (5") diameter circle using a little jowar flour for rolling. You may feel this rolling is little difficult but with time and practice you will surely get it.
+Heat a non-stick tava (griddle) and cook each roti, using ¼ tsp of oil, till it turns golden brown in colour from both the sides.
+Serve the jowar methi roti recipe immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per roti
+Energy 87 cal
+Protein 2.4 g
+Carbohydrates 13.8 g
+Fiber 2.4 g
+Fat 2.4 g
+Cholesterol 0 mg
+Sodium 6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-methi-roti-healthy-jowar-methi-paratha-5695r</t>
+  </si>
+  <si>
+    <t>Recipe# 42718
+28 Mar 20</t>
+  </si>
+  <si>
+    <t>Mysore Barley Dosa</t>
+  </si>
+  <si>
+    <t>for the mysore barley dosa 1 cup barley  jau  1/2 cup urad dal  split black lentils  1/2 tbsp fenugreek  methi  seeds salt to taste  for the mysore chutney  makes approx. 3/4 cup  1 tbsp oil 2 tbsp chana dal  split bengal gram  1/2 tbsp urad dal  split black lentils  3 to 4 whole dry kashmiri red chillies , broken into pieces 1 tsp chilli powder 2 tsp tamarind  imli  pulp 1/2 tsp black peppercorns  kalimirch  1 tsp chopped jaggery  gur  1/3 cup freshly grated coconut salt to taste  other ingredients for mysore barley dosa 6 tsp ghee for cooking</t>
+  </si>
+  <si>
+    <t>52 mins</t>
+  </si>
+  <si>
+    <t>Heat the oil in a broad pan, add the chana dal and urad dal and sauté on a medium flame for a few seconds or till they turn golden brown in colour.
+Add the red chillies and sauté on a medium flame for 2 minutes.
+Add the chilli powder, tamarind pulp, peppercorns, jaggery and coconut, mix well and sauté on a medium flame for a minute. Keep aside.
+When cool, add the salt and blend in a mixer to a smooth paste, adding water as required.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per dosa
+Energy 129 cal
+Protein 4.2 g
+Carbohydrates 16.2 g
+Fiber 2.3 g
+Fat 5.3 g
+Cholesterol 0 mg
+Sodium 7.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mysore-barley-dosa-42718r</t>
+  </si>
+  <si>
+    <t>Recipe# 22212
+22 Apr 23</t>
+  </si>
+  <si>
+    <t>Moong Dal and Suva Sabzi</t>
+  </si>
+  <si>
+    <t>for moong dal and suva sabzi 1 1/2 cups chopped dill leaves 1/2 cup yellow moong dal  split yellow gram  , soaked for 1 hour and drained 1 tsp cumin seeds  jeera  1 tsp finely chopped green chillies 2 tsp finely chopped garlic  lehsun  1/4 tsp turmeric powder  haldi  1/4 tsp chilli powder salt to taste 1/2 cup chopped tomatoes</t>
+  </si>
+  <si>
+    <t>13 mins</t>
+  </si>
+  <si>
+    <t>To make moong dal and suva sabzi, heat a broad non-stick pan on a medium flame and when hot, add the cumin seeds and dry roast on a medium flame for a few seconds.
+Add the green chillies and garlic and dry roast on a medium flame for 30 seconds.
+Add the moong dal and sauté on a medium flame for 1 minute.
+Add the turmeric powder, chilli powder, salt and 1 cup of water and mix well. Cover it with a lid and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Add the dill leaves and mix well. Cover with the lid and cook on a medium flame for another 5 minutes, while stirring occasionally.
+Add the tomatoes and ½ cup of water, mix well and cook on a medium flame for 2 more minutes, while stirring occasionally.
+Serve the moong dal and suva sabzi immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 73 cal
+Protein 5.1 g
+Carbohydrates 12.5 g
+Fiber 2 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 7.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/moong-dal-and-suva-sabzi-22212r</t>
+  </si>
+  <si>
+    <t>Recipe# 38989
+21 Jun 21</t>
+  </si>
+  <si>
+    <t>Nachni Pancake, Ragi Pancake, Healthy Nachni Uttapam</t>
+  </si>
+  <si>
+    <t>for nachni pancake 1/2 cup ragi  nachni / red millet  flour 1 tbsp semolina  rava / sooji  1 tbsp besan  bengal gram flour  1/4 cup finely chopped onions 2 tbsp finely chopped coriander  dhania  1 1/2 tsp finely chopped green chillies salt to taste 1/4 tsp fruit salt 2 1/2 tsp oil for greasing and cooking  for serving with nachni pancake healthy coconut chutney</t>
+  </si>
+  <si>
+    <t>To make nachni pancake, combine all the ingredients, except the fruit salt, along with 3/4th cup of water in a deep bowl and mix well.
+Just before making the pancakes, sprinkle the fruit salt and 2 tsp of water over the batter.
+When the bubbles form, mix gently.
+Grease a non-stick mini uttapa pan with ½ tsp of oil.
+Pour 2 tbsp of the batter in each uttapa mould and spread it lightly.
+Cook, using 1 tsp of oil, till they turn brown in colour from both sides.
+Repeat steps 4 and 5 to make more mini pancakes.
+Serve the nachni pancakes immediately with healthy coconut chutney.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per mini pancake
+Energy 38 cal
+Protein 0.9 g
+Carbohydrates 6.2 g
+Fiber 0.9 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 2.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/nachni-pancake-ragi-pancake-healthy-nachni-uttapam-38989r</t>
+  </si>
+  <si>
+    <t>Recipe# 40748
+29 Apr 19</t>
+  </si>
+  <si>
+    <t>Zucchini, Bell Pepper and Sprouted Moong Salad</t>
+  </si>
+  <si>
+    <t>1/4 cup finely chopped zucchini  unpeeled  1/4 cup finely chopped red capsicum 1/4 cup finely chopped yellow capsicum 1/4 cup finely chopped green capsicum 2 cups parboiled sprouted moong  whole green gram  3/4 cup chopped apple  unpeeled and deseeded  1 tbsp olive oil 2 tsp lemon juice salt and to taste</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and toss well. Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 161 cal
+Protein 8 g
+Carbohydrates 22.6 g
+Fiber 6.6 g
+Fat 4.4 g
+Cholesterol 0 mg
+Sodium 16.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/zucchini-bell-pepper-and-sprouted-moong-salad-40748r</t>
+  </si>
+  <si>
+    <t>Recipe# 1694
+09 Jan 22</t>
+  </si>
+  <si>
+    <t>Nachni Dosa</t>
+  </si>
+  <si>
+    <t>for nachni dosa 2 cups ragi  nachni / red millet  flour 1/2 cup urad dal  split black lentils  1 tsp fenugreek  methi  seeds salt to taste oil for cooking  for serving with nachni dosa sambhar coconut chutney mysore chutney</t>
+  </si>
+  <si>
+    <t>Combine the urad dal, fenugreek seeds and enough water in a deep bowl, cover with a lid and keep aside to soak for 2 hours.
+Drain well and blend in a mixer to a smooth paste using approx. ¾ cup of water.
+Transfer the mixture into a deep bowl, add the ragi flour, salt and approx. 1¼ cups of water, mix very well using a whisk. Cover with a lid and keep aside to ferment in a warm place for 12 hours.
+Once fermented, mix very well again.
+Heat a non-stick tava (griddle), sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 225 mm. (9”) diameter thin circle.
+Smear a little oil over it and along the edges and cook on a high flame till the dosa turns brown in colour and crisp form both the sides.
+Fold over to make a semi-circle or a roll.
+Repeat with the remaining batter to make 14 more nachni dosas.
+Serve the nachni dosa immediately with sambhar, coconut chutney and mysore chutney.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per dosa
+Energy 133 cal
+Protein 3.2 g
+Carbohydrates 18.1 g
+Fiber 3 g
+Fat 5.4 g
+Cholesterol 0 mg
+Sodium 4.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/nachni-dosa-1694r</t>
+  </si>
+  <si>
+    <t>Recipe# 822
+24 Nov 21</t>
+  </si>
+  <si>
+    <t>Whole Wheat Methi Khakhra</t>
+  </si>
+  <si>
+    <t>for whole wheat methi khakhra 2 cups whole wheat flour  gehun ka atta  3/4 cup chopped fenugreek  methi  leaves 1 tbsp sesame seeds  til  1/4 tsp turmeric powder  haldi  1/4 tsp chilli powder salt to taste 2 tsp oil whole wheat flour  gehun ka atta  for rolling</t>
+  </si>
+  <si>
+    <t>45 mins</t>
+  </si>
+  <si>
+    <t>To make whole wheat methi khakhra, combine all the ingredientsin a deep bowl and knead into a semi-seft dough using enough water.
+Divide the dough into 16 equal portions.
+Roll out a portion of the dough into a 175 mm. (7") diameter thin circle, using a little whole wheat flour for rolling.
+Heat a concave non-stick tava (griddle) and cook the khakhra on a slow flame till pink spots appear on both the sides.
+Continue cooking the whole wheat methi khakhra on a slow flame, while pressing with a whole wheat methi khakhra press or a folded muslin cloth, till it turns crisp and golden brown spots appear on both the sides.
+Cool and serve or store the whole wheat methi khakhras in an air-tight container.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per khakhra
+Energy 65 cal
+Protein 2.1 g
+Carbohydrates 12 g
+Fiber 2.2 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 4.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/whole-wheat-methi-khakhra-822r</t>
+  </si>
+  <si>
+    <t>Recipe# 41565
+23 Nov 20</t>
+  </si>
+  <si>
+    <t>Matki Sabzi</t>
+  </si>
+  <si>
+    <t>for matki sabzi 3 cups boiled sprouted matki  moath beans  2 tsp oil 1 tsp mustard seeds   rai / sarson  1/4 tsp asafoetida  hing  1 1/2 tsp chilli powder 1/4 tsp turmeric powder  haldi  2 tsp coriander  dhania  powder salt to taste 1 tsp sugar 2 tbsp finely chopped coriander  dhania  1 tsp lemon juice  for serving with matki sabzi phulkas</t>
+  </si>
+  <si>
+    <t>To make matki sabzi, heat the oil in a deep non-stick pan, add the mustard seeds and asafoetida and sauté on a medium flame for few seconds.
+Add the matki, chilli powder, turmeric powder, coriander powder, salt and sugar, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the coriander and mix well.
+Switch off the flame, add the lemon juice and mix well.
+Serve the matki sabzi hot with phulkas.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 205 cal
+Protein 12.6 g
+Carbohydrates 31.7 g
+Fiber 2.5 g
+Fat 3.1 g
+Cholesterol 0 mg
+Sodium 16.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/matki-sabzi-41565r</t>
+  </si>
+  <si>
+    <t>Recipe# 39646
+22 Jul 20</t>
+  </si>
+  <si>
+    <t>Bajra, Whole Moong and Green Pea Khichdi</t>
+  </si>
+  <si>
+    <t>for bajra , whole moong and green pea khichdi 1/4 cup bajra  black millet  , soaked for 5 hours and drained 1/4 cup moong  whole green gram  1/2 cup green peas 2 tsp oil 1 tsp cumin seeds  jeera  a pinch of asafoetida  hing  1/2 cup finely chopped onions 1 cup chopped tomatoes 1 tsp garlic  lehsun  paste 1/2 tsp ginger  adrak  paste 1/2 tsp green chilli paste 1/2 tsp turmeric powder  haldi  1 tsp chilli powder salt to taste</t>
+  </si>
+  <si>
+    <t>27 mins</t>
+  </si>
+  <si>
+    <t>To make bajra whole moong and green pea khichdi, soak the bajra and moong separately in enough watwer in a deep bowl for 5 hours and drain well.
+Combine the bajra, moong, green peas, salt and 1 cup of water in a pressure cooker, mix well and pressure cook for 5 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a deep non-stick pan and add the cumin seeds.
+When the seeds crackle, add and the asafoetida onions and sauté on a medium flame for 1 minute.
+Add the tomatoes, garlic paste, ginger paste, green chilli paste, turmeric powder, chilli powder and salt, mix well and cook on a medium flame for 2 to 3 minutes, mash using a potato masher, white stirring occasionally.
+Add the cooked bajra-moong dal- green pea mixture and ¼ cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve the bajra whole moong and green pea khichdi hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 142 cal
+Protein 6.6 g
+Carbohydrates 21.4 g
+Fiber 5.9 g
+Fat 3.3 g
+Cholesterol 0 mg
+Sodium 12.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bajra-whole-moong-and-green-pea-khichdi-39646r</t>
+  </si>
+  <si>
+    <t>Recipe# 5613
+23 May 22</t>
+  </si>
+  <si>
+    <t>Avocado Salad ( Recipe for Shiny Hair)</t>
+  </si>
+  <si>
+    <t>for avocado salad 1 cup roughly chopped avocado 1/2 cup sliced capsicum 1/2 cup tomato strips , deseeded 1 cup sliced and blanched baby corn 1/2 cup cucumber strips  to be mixed into a dressing 2 tsp honey 3/4 tbsp lemon juice 2 tsp finely chopped mint leaves  phudina  salt and freshly ground black pepper  kalimirch  to taste</t>
+  </si>
+  <si>
+    <t>Combine the all the ingredients in a deep bowl and mix well.
+Add the dressing and toss well.
+Serve the avocado salad immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 95 cal
+Protein 1.6 g
+Carbohydrates 13.3 g
+Fiber 1.5 g
+Fat 4.5 g
+Cholesterol 0 mg
+Sodium 4.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-salad--recipe-for-shiny-hair-5613r</t>
+  </si>
+  <si>
+    <t>Recipe# 3883
+23 Mar 23</t>
+  </si>
+  <si>
+    <t>Masala Chawli</t>
+  </si>
+  <si>
+    <t>for masala chawli 1/2 cup chawli  cow pea / lobhia  , soaked overnight and drained salt to taste 1 tbsp coconut oil or oil 1/2 cup finely chopped onions 1 cup fresh tomato pulp 1/2 tsp dried fenugreek leaves  kasuri methi  1/4 tsp turmeric powder  haldi   to be ground into a smooth mint paste 3/4 cup chopped mint leaves  phudina  , washed and drained 1 tsp roughly chopped ginger  adrak  2 tsp roughly chopped green chillies 1/2 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>23 mins</t>
+  </si>
+  <si>
+    <t>To make masala chawli, first prepare the mint paste by putting in a mixer, mint leaves, ginger, green chillies, lemon juice and 2 tbsp water. Grind to a smooth paste.
+Combine the soaked chawli, salt and 1 cup of water in a pressure cooker, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid. Do not discard the water. Keep aside.
+Heat the coconut oil or oil in a deep non-stick pan, add the onions and sauté on a medium flame for 1 to 2 minutes.
+Add the fresh tomato pulp, the dried fenugreek leaves, turmeric powder, a little salt, cooked chawli along with the water, mint paste and mix well.
+Cook on a medium flame for 4 to 5 minutes, while stirring occasionally.
+Serve masala chawli hot with bajra roti or roti.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 122 cal
+Protein 5.8 g
+Carbohydrates 15.2 g
+Fiber 4.6 g
+Fat 4.1 g
+Cholesterol 0 mg
+Sodium 12.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masala-chawli-3883r</t>
+  </si>
+  <si>
+    <t>Recipe# 3546
+02 Oct 19</t>
+  </si>
+  <si>
+    <t>High Fibre Chillas, Buckwheat Oats Indian Pancake</t>
+  </si>
+  <si>
+    <t>for high fibre chillas 1/2 cup buckwheat  kuttu or kutti no daro  1/4 cup low fat curds  dahi  1/4 cup quick cooking rolled oats 1 1/2 tsp ginger-green chilli paste 1/2 cup grated carrot 1/2 cup chopped spring onions whites and greens 2 tbsp finely chopped coriander  dhania  salt to taste 1 tsp peanut oil for greasing 1 tsp peanut oil for cooking  for serving with high fibre chillas low calorie green chutney</t>
+  </si>
+  <si>
+    <t>To make high fibre chillascombine the buckwheat, curds and ½ cup of water in a deep bowl and mix well. Cover with a lid and keep aside for 2 hours.
+Blend the mixture to a smooth paste using no water.
+Transfer the mixture into a deep bowl, add all the remaining ingredients and ¼ cup of water and mix well.
+Grease a non-stick tava (griddle) with ¼ tsp of oil and pour a ladleful of the batter and spread it evenly to make a 125 mm. (5”) diameter thin circle and cook on a medium flame using ¼ tsp of oil till both the sides are golden brown in colour.
+Repeat with the remaining batter to make 3 more high fibre chillas.
+Serve the high fibre chillas immediately with low calorie green chutney.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per chila
+Energy 109 cal
+Protein 3.3 g
+Carbohydrates 16.6 g
+Fiber 2.7 g
+Fat 3.3 g
+Cholesterol 0 mg
+Sodium 14.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/high-fibre-chillas-buckwheat-oats-indian-pancake-3546r</t>
+  </si>
+  <si>
+    <t>Recipe# 40159
+12 Apr 20</t>
+  </si>
+  <si>
+    <t>4 Flour Dosa, Mixed Flour Dosa</t>
+  </si>
+  <si>
+    <t>for 4 flour dosa 1/2 cup urad dal  split black lentils  1 tsp fenugreek  methi  seeds 1/2 cup bajra  black millet  flour 1/2 cup jowar  white millet  flour 1/2 cup ragi  nachni / red millet  flour 1/2 cup whole wheat flour  gehun ka atta  salt to taste 3 tsp oil for cooking  for serving with 4 flour dosa sambhar</t>
+  </si>
+  <si>
+    <t>To make 4 flour dosa, combine the urad dal and fenugreek seeds in a deep bowl and soak it for 2 hours in enough water.
+Drain well and blend in a mixer till smooth using approx. ¾ cup of water.
+Transfer the mixture into a deep bowl, add the bajra flour, jowar flour, nachni flour, whole wheat flour, salt and approx. 1¾ cups of water and mix very well using a whisk. Cover with a lid and keep aside to ferment overnight.
+Next day, mix very well again.
+Heat a non-stick tava (griddle), sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 200 mm. (8”) diameter thin circle.
+Smear ¼ tsp of oil over it and along the edges and cook on a medium flame till the 4 flour dosa turns brown in colour and crisp from both the sides.
+Fold the 4 flour dosa over to make a semi-circle or a roll.
+Repeat with the remaining batter to make 11 more 4 flour dosas.
+Serve the 4 flour dosa immediately with sambhar.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per dosa
+Energy 108 cal
+Protein 4.1 g
+Carbohydrates 19.1 g
+Fiber 3.2 g
+Fat 1.8 g
+Cholesterol 0 mg
+Sodium 6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/4-flour-dosa-mixed-flour-dosa-40159r</t>
+  </si>
+  <si>
+    <t>Recipe# 6232
+03 Nov 20</t>
+  </si>
+  <si>
+    <t>Melon Magic, Muskmelon and Orange Juice</t>
+  </si>
+  <si>
+    <t>hopper method 2 cups muskmelon  kharbooja  cubes  deseeded  8 big orange segments  deseeded  1/2 tsp black salt  sanchal  crushed ice for serving  juicer method 2 cups muskmelon  kharbooja  cubes 8 big orange segments  deseeded  1/2 tsp black salt  sanchal  crushed ice for serving</t>
+  </si>
+  <si>
+    <t>Add the muskmelon cubes and orange segments a few at a time in the hopper.
+Add the black salt and mix well.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 97 cal
+Protein 1.6 g
+Carbohydrates 21 g
+Fiber 3.5 g
+Fat 0.8 g
+Cholesterol 0 mg
+Sodium 318.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/melon-magic-muskmelon-and-orange-juice-6232r</t>
+  </si>
+  <si>
+    <t>Recipe# 42325
+27 Jul 20</t>
+  </si>
+  <si>
+    <t>Cauliflower Greens, Methi and Palak Healthy Subzi</t>
+  </si>
+  <si>
+    <t>1 cup finely chopped cauliflower greens 1/2 cup finely chopped fenugreek  methi  leaves 1/2 cup finely chopped spinach  palak  2 tsp oil 1 tsp cumin seeds  jeera  1/2 cup finely chopped onions 1 tsp ginger-garlic  adrak-lehsun  paste 1/2 cup finely chopped tomatoes 1/2 tsp chilli powder 1/2 tsp coriander  dhania  powder 1/4 tsp turmeric powder  haldi  1/2 tsp garam masala salt to taste</t>
+  </si>
+  <si>
+    <t>Heat the oil in a deep non-stick pan and add the cumin seeds.
+When the seeds crackle, add the onions and ginger-garlic paste and sauté on a medium flame for 2 minutes.
+Add the tomatoes, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the chilli powder, coriander powder, turmeric powder, garam masala, salt and 2 tbsp of water, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the greens and ½ cup of water, mix well, cover with a lid and cook on a medium flame for 4 to 5 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 57 cal
+Protein 1.4 g
+Carbohydrates 4.6 g
+Fiber 1.5 g
+Fat 3.6 g
+Cholesterol 0 mg
+Sodium 14.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cauliflower-greens-methi-and-palak-healthy-subzi-42325r</t>
+  </si>
+  <si>
+    <t>Recipe# 40994
+23 Oct 22</t>
+  </si>
+  <si>
+    <t>Multi Flour Idli, Healthy Multi Grain Idli</t>
+  </si>
+  <si>
+    <t>for multi flour idli 1/2 cup urad dal  split black lentils  1 tsp fenugreek  methi  seeds 1/2 cup bajra  black millet  flour 1/2 cup jowar  white millet  flour 1/2 cup ragi  nachni / red millet  flour 1/2 cup whole wheat flour  gehun ka atta  salt to taste 1 tsp fruit salt  for serving with multi flour idli sambhar</t>
+  </si>
+  <si>
+    <t>35 mins</t>
+  </si>
+  <si>
+    <t>To make multi flour idli, combine the urad dal and fenugreek seeds in a deep bowl and soak it in enough water for 2 hours.
+Drain well and blend in a mixer till smooth using approx. ¾ cup of water.
+Transfer the mixture into a deep bowl, add the bajra flour, jowar flour, ragi flour, whole wheat flour, salt and approx. 1¾ cups of water and mix very well using a whisk. Cover with a lid and keep aside to ferment overnight.
+After fermentation, mix the batter well once again.
+Just before steaming, add fruit salt and 1 tbsp of water and mix gently.
+Pour spoonfuls of the batter into greased idli moulds.
+Steam in an idli steamer for 10 minutes or till they are cooked.
+Repeat with the remaining batter to make more idlis.
+Serve the multi flour idli immediately with sambhar.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per idli
+Energy 33 cal
+Protein 1.4 g
+Carbohydrates 6.6 g
+Fiber 1.1 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/multi-flour-idli-healthy-multi-grain-idli-40994r</t>
+  </si>
+  <si>
+    <t>Recipe# 42634
+29 Mar 19</t>
+  </si>
+  <si>
+    <t>Suva Palak Methi Subzi</t>
+  </si>
+  <si>
+    <t>3/4 cup chopped dill leaves 2 cups chopped spinach  palak  1 cup finely chopped fenugreek  methi  leaves 2 tsp oil 1 tsp cumin seeds  jeera  1/2 tsp mustard seeds   rai / sarson  1/4 tsp asafoetida  hing  1/4 cup chana dal  split bengal gram  1/2 tsp ginger  adrak  paste 1 tsp garlic  lehsun  paste 1/2 tsp green chilli paste 1/2 cup finely chopped tomatoes 1/4 tsp turmeric powder  haldi  1/2 tsp coriander  dhania  powder salt to taste</t>
+  </si>
+  <si>
+    <t>Combine the chana dal with enough hot water and soak for 2 hours. Drain and keep aside.
+Heat the oil in a deep non-stick pan, add the cumin seeds, mustard seeds and asafoetida and sauté on a medium flame for 30 seconds.
+Add the dill leaves, spinach and fenugreek and mix well. Cover with a lid and cook on a medium flame for 4 minutes, while stirring occasionally.
+Add the chana dal, ginger paste, garlic paste, green chilli paste and ¾ cup of water and mix well. Cover with a lid and cook on a medium flame for 12 minutes, while stirring occasionally.
+Add the tomatoes, turmeric powder, coriander powder and salt, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 115 cal
+Protein 5.2 g
+Carbohydrates 13 g
+Fiber 5 g
+Fat 4.7 g
+Cholesterol 0 mg
+Sodium 49.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/suva-palak-methi-subzi-42634r</t>
+  </si>
+  <si>
+    <t>Recipe# 32705
+12 Apr 22</t>
+  </si>
+  <si>
+    <t>Hare Lehsun ki Chutney</t>
+  </si>
+  <si>
+    <t>for hare lehsun ki chutney 1 cup chopped coriander  dhania  1/2 cup chopped fresh green garlic  hara lehsun  , including the greens 1 tbsp roasted chana dal  daria  1 tsp lemon juice 1 tbsp roughly chopped green chillies salt to taste</t>
+  </si>
+  <si>
+    <t>To make hare lehsun ki chutney, combine all the ingredients along with 5 tbsp of water in a mixer and blend till smooth.
+Store the hare lehsun ki chutney in an air-tight container, refrigerate and use as required.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per tbsp
+Energy 3 cal
+Protein 0.2 g
+Carbohydrates 0.4 g
+Fiber 0.2 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 2.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/hare-lehsun-ki-chutney-32705r</t>
+  </si>
+  <si>
+    <t>Recipe# 3458
+12 Dec 21</t>
+  </si>
+  <si>
+    <t>Til Masala Khakhra, Spicy Sesame Wheat Khakhra</t>
+  </si>
+  <si>
+    <t>for til masala khakhra 1/2 cup whole wheat flour  gehun ka atta  1 tsp sesame seeds  til  1/4 tsp turmeric powder  haldi  1/2 tsp chilli powder 2 tsp oil salt to taste whole wheat flour  gehun ka atta  for rolling</t>
+  </si>
+  <si>
+    <t>25 mins</t>
+  </si>
+  <si>
+    <t>To make the til masala khakhra, ombine the whole wheat flour, sesame seeds , turmeric powder, chilli powder, oil and salt in a deep bowl and knead into a soft dough using enough warm water.
+Divide the dough into 6 equal portions.
+Roll out a portion into a 150 mm. (6") diameter thin circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and place a roti on it and cook on both sides for a few seconds and cook on a slow flame until crisp using little pressure with help of a muslin cloth or with a khakhra press.
+Repeat steps 3 to 5 to make 5 more khakhras.
+Allow the til masala khakhra to cool completely, store in an air-tight container. Use as required.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per khakhra
+Energy 54 cal
+Protein 1.4 g
+Carbohydrates 7.9 g
+Fiber 1.4 g
+Fat 2 g
+Cholesterol 0 mg
+Sodium 2.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/til-masala-khakhra-spicy-sesame-wheat-khakhra-3458r</t>
+  </si>
+  <si>
+    <t>Recipe# 37041
+13 Mar 21</t>
+  </si>
+  <si>
+    <t>Sprouts Pulao ( Low Cal)</t>
+  </si>
+  <si>
+    <t>for sprouts pulao 1/2 cup boiled sprouted matki  moath beans  1/2 cup boiled sprouted moong  whole green gram  2 cups cooked brown rice 1 tsp oil 1 tsp cumin seeds  jeera  1/2 cup finely chopped onions 1 tsp finely chopped garlic  lehsun  1 tsp finely chopped ginger  adrak  a pinch turmeric powder  haldi  1/2 tsp chilli powder 1/4 cup finely chopped tomatoes 3 tbsp finely chopped capsicum 1 tsp pav bhaji masala salt to taste</t>
+  </si>
+  <si>
+    <t>Heat the oil in a non-stick broad pan and add the cumin seeds.
+When the seeds crackle, add the onions and sauté on a medium flame for 1 to 2 minutes, or till the onions turn translucent.
+Add the garlic, ginger, turmeric powder, chilli powder, tomatoes and a little water and cook on a medium flame for another 2 to 3 minutes, while stirring occasionally.
+Add the capsicum, a little more water and cook on a medium flame for another 1 to 2 minutes, while stirring occasionally.
+Add the pav bhaji masala, salt, matki sprouts and moong sprouts, mix well and cook for 2 to 3 minutes, while stirring continuously.
+Add the brown rice, mix well and cook on a medium flame for 2 to 3 minutes, while stirring continuously.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 187 cal
+Protein 6.7 g
+Carbohydrates 34.6 g
+Fiber 3.3 g
+Fat 2.3 g
+Cholesterol 0 mg
+Sodium 8.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouts-pulao--low-cal-37041r</t>
+  </si>
+  <si>
+    <t>Recipe# 40846
+05 Aug 22</t>
+  </si>
+  <si>
+    <t>Red Capsicum Carrot and Apple Juice</t>
+  </si>
+  <si>
+    <t>for red capsicum carrot and apple juice 1 cup red capscium cubes 1 cup peeled carrot cubes 1 cup apple cubes 10 to 12 ice-cubes</t>
+  </si>
+  <si>
+    <t>To make red capsicum, carrot and apple juice, combine the red capsicum cubes, carrot cubes, apple cubes, 1 cup of water and ice cubes in a high quality blender jar (like vitamix) and blend well till smooth and frothy.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per small glass
+Energy 32 cal
+Protein 0.6 g
+Carbohydrates 6.8 g
+Fiber 2.3 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 14.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/red-capsicum-carrot-and-apple-juice-40846r</t>
+  </si>
+  <si>
+    <t>Recipe# 6419
+19 Aug 19</t>
+  </si>
+  <si>
+    <t>Spinach and Moath Beans Curry ( Healthy Subzis)</t>
+  </si>
+  <si>
+    <t>3 cups chopped spinach  palak  1 cup sprouted matki  moath beans  3/4 cup finely chopped tomatoes salt to taste 2 tsp oil 1/2 tsp mustard seeds   rai / sarson  1 tsp finely chopped garlic  lehsun  7 to 8 curry leaves  kadi patta   to be ground into a smooth paste  using approx. 1/4 cup of water  1/2 tsp coriander  dhania  seeds 1/4 tsp cumin seeds  jeera  1/4 tsp fenugreek  methi  seeds 1/4 tsp roughly chopped garlic  lehsun  3 whole dry kashmiri red chillies , broken into pieces 1/4 tsp turmeric powder  haldi  1 tbsp freshly grated coconut</t>
+  </si>
+  <si>
+    <t>Combine the sprouted matki, spinach, tomatoes, salt and 1½ cups of water in a deep non-stick pan and mix well. Cover with a lid and cook on a medium flame for 10 to 12 minutes or till the matki is tender, while stirring occasionally.
+Add the prepared paste, mix well and cook on a medium flame another 3 to 4 minutes, while stirring occasionally. Keep aside.
+For the tempering, heat the oil in a small non-stick pan and add the mustard seeds.
+When the seeds crackle, add the garlic and curry leaves and sauté on a slow flame for a few seconds.
+Pour this tempering over the curry, mix well and cook on a medium flame for 1 minute.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 55 cal
+Protein 1.5 g
+Carbohydrates 3 g
+Fiber 2.2 g
+Fat 4.1 g
+Cholesterol 0 mg
+Sodium 34.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/spinach-and-moath-beans-curry--healthy-subzis-6419r</t>
+  </si>
+  <si>
+    <t>Recipe# 6406
+02 Dec 20</t>
+  </si>
+  <si>
+    <t>Gavarfali ki Subzi ( Healthy Subzi)</t>
+  </si>
+  <si>
+    <t>2 cups cluster beans  gavarfali  salt to taste 1 cup fresh low-fat curds  dahi  1 tbsp coriander-cumin seeds  dhania-jeera  powder 2 tsp chilli powder 1 tbsp besan  bengal gram flour  2 tsp oil 1 tsp cumin seeds  jeera  1/2 tsp mustard seeds   rai / sarson  1 tsp fennel seeds  saunf  1/4 tsp asafoetida  hing  5 curry leaves  kadi patta   for serving rotis</t>
+  </si>
+  <si>
+    <t>17 mins</t>
+  </si>
+  <si>
+    <t>Clean the cluster beans by removing the ends and string them and cut them into 25 mm. (1”) pieces.
+Combine the cluster beans, salt and 1 cup of water in a pressure cooker, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid and keep aside.
+Combine the curds, coriander-cumin seeds powder, chilli powder, besan and a little salt in a deep bowl and whisk well till no lumps remain.
+Add the cluster beans to the curds mixture, mix well and keep aside.
+Heat the oil in a non-stick kadhai and add the cumin seeds, mustard seeds, fennel seeds and asafoetida.
+When the cumin and mustard seeds crackle, add the curry leaves and sauté on a medium flame for a few seconds.
+Lower the flame, add the cluster bean-curds mixture, mix well and cook for another 3 to 4 minutes, while stirring continuously.
+Serve hot with rotis.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 62 cal
+Protein 4.2 g
+Carbohydrates 10.4 g
+Fiber 3.6 g
+Fat 3 g
+Cholesterol 0 mg
+Sodium 27.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/gavarfali-ki-subzi--healthy-subzi-6406r</t>
+  </si>
+  <si>
+    <t>Recipe# 365
+01 Jun 21</t>
+  </si>
+  <si>
+    <t>Orange, Grapefruit and Mint Salad</t>
+  </si>
+  <si>
+    <t>5 tbsp readymade orange juice 1 1/2 cups orange segments 1 1/2 cups grapefruit segments 2 tbsp finely chopped mint leaves  phudina  1 tbsp sugar</t>
+  </si>
+  <si>
+    <t>Combine the orange juice and sugar in a small non-stick pan, mix well and cook on a medium flame for 5 minutes, while stirring occasionally. Keep aside.
+Combine the orange segments, grapefruit segments and mint leaves along with the prepared orange-sugar mixture in a deep bowl, mix well and refrigerate for 1 hour.
+Serve chilled.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 105 cal
+Protein 1.5 g
+Carbohydrates 24 g
+Fiber 2.4 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 6.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/orange-grapefruit-and-mint-salad-365r</t>
+  </si>
+  <si>
+    <t>Recipe# 22339
+10 Jan 21</t>
+  </si>
+  <si>
+    <t>Hara Lehsun ka Achar</t>
+  </si>
+  <si>
+    <t>for hara lehsun ka achar 1 cup finely chopped green garlic  hara lehsun  1 tsp chilli powder 1 tbsp coriander-cumin seeds  dhania-jeera  powder 1/2 tsp turmeric powder  haldi  a pinch of asafoetida  hing  2 tsp oil 1/4 tsp salt</t>
+  </si>
+  <si>
+    <t>To make hara lehsun ka achar, heat the oil till it starts smoking. Remove from the flame and keep aside to cool.
+Mix all the ingredients together in a bowl and keep aside to marinate for atleast 2 to 3 hours.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per tbsp
+Energy 7 cal
+Protein 0 g
+Carbohydrates 0 g
+Fiber 0 g
+Fat 0.7 g
+Cholesterol 0 mg
+Sodium 55.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/hara-lehsun-ka-achar-22339r</t>
+  </si>
+  <si>
+    <t>Recipe# 1439
+18 Feb 21</t>
+  </si>
+  <si>
+    <t>Bajra Carrot Onion Uttapam, Healthy Bajra Onion Uttapam Breakfast Recipe</t>
+  </si>
+  <si>
+    <t>for bajra carrot onion uttapa 1/4 cup whole bajra  black millet  , soaked for 8 hours and drained 1 1/4 cups bajra  black millet  flour salt to taste 1/2 cup grated carrot 1/2 cup finely chopped onions 1 tsp finely chopped green chillies 1 tsp garlic  lehsun  paste 1/4 cup finely chopped coriander  dhania  1 1/2 tbsp lemon juice 1/4 tsp turmeric powder  haldi  1 tsp chilli powder 1 1/2 tsp oil for greasing and cooking  for serving with bajra carrot onion uttapa healthy green chutney</t>
+  </si>
+  <si>
+    <t>To make bajra carrot onion uttapa, combine the whole bajra, ½ cup of water and salt in a pressure cooker, mix well and pressure cook for 5 whistles.
+Allow the steam to escape before opening the lid. Drain the water and keep the cooked whole bajra aside.
+Combine all the ingredients, along with whole bajra and 1½ cups of water, in a deep bowl and mix well.
+Heat a non-stick tava (griddle) and grease it lightly with ¼ tsp of oil.
+Pour ¼ cup of batter over it and tilt the tava (griddle) lightly to spread the batter evenly to form a 125 mm. (5”) diameter circle. Cook on a medium flame, using one-eighth tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat step 5 to make 9 more uttapas.
+Serve the bajra carrot onion uttapa immediately with healthy green chutney.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per uttapa
+Energy 73 cal
+Protein 2 g
+Carbohydrates 12.5 g
+Fiber 2.1 g
+Fat 1.7 g
+Cholesterol 0 mg
+Sodium 4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bajra-carrot-onion-uttapam-healthy-bajra-onion-uttapam-breakfast-recipe-1439r</t>
+  </si>
+  <si>
+    <t>Recipe# 42227
+28 Apr 22</t>
+  </si>
+  <si>
+    <t>Grilled Cauliflower, Roasted Cauliflower with Herbs</t>
+  </si>
+  <si>
+    <t>for grilled cauliflower 1 1/2 cups sliced cauliflower 1 tsp grated garlic  lehsun  2 tsp dry red chilli flakes  paprika  1 tsp dried mixed herbs 2 tbsp olive oil salt to taste oil for greasing</t>
+  </si>
+  <si>
+    <t>To make grilled cauliflower, combine the garlic, chilli flakes, mixed herbs, olive oil and salt in a deep bowl and mix well.
+Add the cauliflower and mix well.
+Heat a non-stick griller pan till hot and grease it with little oil. Arrange half of the marinated cauliflower on it and cook on a medium flame for 3 minutes.
+Turn each marinated cooked cauliflower over using a tong and cook the other side as well for 3 minutes.
+Repeat steps 3 and 4 to make 1 more batch.
+Serve the grilled cauliflower immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 154 cal
+Protein 1.8 g
+Carbohydrates 2.9 g
+Fiber 2.5 g
+Fat 15.3 g
+Cholesterol 0 mg
+Sodium 36.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/grilled-cauliflower-roasted-cauliflower-with-herbs-42227r</t>
+  </si>
+  <si>
+    <t>Recipe# 5582
+28 Jan 22</t>
+  </si>
+  <si>
+    <t>Bajra Kaddu ki Roti, Lehsun Bajra Bhopla Paratha</t>
+  </si>
+  <si>
+    <t>for bajra kaddu ki roti 1 tsp garlic  lehsun  paste 1/2 cup bajra  black millet  flour 1 cup grated red pumpkin  bhopla/ kaddu  1/2 cup whole wheat flour  gehun ka atta  1 tsp ginger-green chilli paste a pinch of turmeric powder  haldi  1/4 tsp asafoetida  hing  1 tsp lemon juice 2 tbsp chopped coriander  dhania  salt to taste whole wheat flour  gehun ka atta  for rolling 1 1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>To make bajra kaddu ki roti, combine all the ingredients together, except the oil and make a semi-soft dough without using any water.
+Divide the dough into 6 equal portions and roll out each portion into 125 mm. (5") diameter circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook each roti, using ¼ tsp of oil, till both sides are golden brown in colour.
+Serve the bajra kaddu ki roti immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 86 cal
+Protein 2.7 g
+Carbohydrates 14.7 g
+Fiber 2.5 g
+Fat 2 g
+Cholesterol 0 mg
+Sodium 5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bajra-kaddu-ki-roti-lehsun-bajra-bhopla-paratha-5582r</t>
+  </si>
+  <si>
+    <t>Recipe# 4208
+09 Sep 21</t>
+  </si>
+  <si>
+    <t>Karela Thepla</t>
+  </si>
+  <si>
+    <t>for karela thepla 1/2 cup finely chopped bitter gourd  karela  peels 1 cup whole wheat flour  gehun ka atta  1/4 cup bajra  black millet  flour 1/2 tsp finely chopped garlic  lehsun  1/2 tsp turmeric powder  haldi  1 tsp chilli powder 1 tsp coriander  dhania  powder 1 tbsp chopped coriander  dhania  salt to taste whole wheat flour  gehun ka atta  for rolling 2 1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>To make karela thepla, combine all the ingredients in a deep bowl and knead into a semi-stiff dough using enough water and knead well.
+Divide the dough into 10 equal portions and roll each portion of the dough into a 125 mm. (5") diameter circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook them using ¼ tsp of oil, till golden brown spots appear on both the sides.
+Serve the karela thepla immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per thepla
+Energy 65 cal
+Protein 2 g
+Carbohydrates 11.3 g
+Fiber 2.1 g
+Fat 1.6 g
+Cholesterol 0 mg
+Sodium 3.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/karela-thepla-4208r</t>
+  </si>
+  <si>
+    <t>Recipe# 22448
+28 Nov 22</t>
+  </si>
+  <si>
+    <t>Peanut Tikki, Groundnut Tikkis</t>
+  </si>
+  <si>
+    <t>for peanut tikki 1/2 cup roasted and powdered peanuts 1/2 cup besan  bengal gram flour  1/2 cup chopped spinach  palak  5 tbsp whole wheat flour  gehun ka atta  1 1/2 tsp finely chopped green chillies 1 tbsp lemon juice salt to taste 1 tsp warm oil for kneading 2 1/2 tsp oil for greasing and cooking 2 tsp green chutney</t>
+  </si>
+  <si>
+    <t>To make peanut tikki, combine all the ingredients in a deep bowl, mix well and knead into a soft dough using ¼ cup water.
+Add 1 tsp of warm oil and again knead well.
+Divide the dough into 8 equal portions and shape each portion into 50 mm. (2”) diameter thin round flat tikkis.
+Heat a non-stick tava (griddle) and grease it using ½ tsp of oil. Cook each tikki on it using ¼ tsp of oil till they turn golden brown in colour from both the sides.
+Serve peanut tikki immediately with green chutney.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per tikki
+Energy 128 cal
+Protein 5.1 g
+Carbohydrates 12.1 g
+Fiber 3.1 g
+Fat 7.1 g
+Cholesterol 0 mg
+Sodium 12.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/peanut-tikki-groundnut-tikkis-22448r</t>
+  </si>
+  <si>
+    <t>Recipe# 38448
+18 Apr 22</t>
+  </si>
+  <si>
+    <t>Chawli and Sprouted Moong Salad, Healthy Chawli Vegetable Salad</t>
+  </si>
+  <si>
+    <t>for chawli and sprouted moong salad 1 cup soaked and boiled chawli  cow pea / lobhia  1/4 cup boiled sprouted moong  whole green gram  1/4 cup chopped tomatoes 1/4 cup chopped spring onions whites and greens 1/4 cup chopped cabbage 1 tsp lemon juice 1/4 tsp chilli powder 1/4 tsp cumin seeds  jeera  powder 1/4 tsp dried mango powder  amchur  1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>To make chawli and sprouted moong salad, combine all the ingredients in a deep bowl and mix well.
+Serve the chawli and sprouted moong salad immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 112 cal
+Protein 8.1 g
+Carbohydrates 18.9 g
+Fiber 5.7 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 140.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chawli-and-sprouted-moong-salad-healthy-chawli-vegetable-salad-38448r</t>
+  </si>
+  <si>
+    <t>Recipe# 41655
+24 Aug 20</t>
+  </si>
+  <si>
+    <t>Brown Rice and Moong Dal Pongal, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup brown rice 1/2 cup yellow moong dal  split yellow gram  1/2 tsp roasted and crushed cumin seeds  jeera  1/2 tsp crushed peppercorns  kalimirch  1/8 tsp salt 2 tsp oil 1/4 tsp cumin seeds  jeera  1/4 tsp asafoetida  hing  4 curry leaves  kadi patta  2 whole dry kashmiri red chillies , broken into pieces 1 tsp finely chopped ginger  adrak </t>
+  </si>
+  <si>
+    <t>Clean, wash the brown rice and moong dal using a strainer and drain well.
+Spread the brown rice on a dry muslin cloth and allow it to completely dry for 30 minutes.
+Heat a deep non-stick pan, add the brown rice and moong dal and dry roast on medium flame for 7 to 8 minutes.
+Combine the rice- moong dal mixture, crushed cumin seeds, peppercorns, 3¼ cups of water and salt, mix well and pressure cook for 5 whistles.
+Allow the steam to escape before opening the lid.
+Mash it well using a spatula. Keep aside.
+Heat the oil in a small non-stick pan and add the cumin seeds.
+When the seeds crackle, add the asafoetida, curry leaves ,dry red chillies and ginger and sauté on medium flame for 1 minute.
+Add this tempering over the cooked pongal and mix well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 168 cal
+Protein 6.3 g
+Carbohydrates 28.1 g
+Fiber 2.3 g
+Fat 3.3 g
+Cholesterol 0 mg
+Sodium 102.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/brown-rice-and-moong-dal-pongal-low-salt-recipe-41655r</t>
+  </si>
+  <si>
+    <t>Recipe# 41594
+22 Jul 22</t>
+  </si>
+  <si>
+    <t>Avocado Spinach Pear Smoothie, Healthy Smoothie</t>
+  </si>
+  <si>
+    <t>for avocado spinach pear smoothie 1 cup roughly chopped riped avocado 1 1/2 cups roughly chopped spinach  palak  1 cup roughly chopped pears 1 cup roughly chopped apples</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a mixer along with 1 cup of chilled water and blend till smooth.
+Pour equal quantities of the smoothie into 3 indivdual glasses and serve the avocado spinach pear smoothie immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per glass
+Energy 168 cal
+Protein 1.9 g
+Carbohydrates 13.3 g
+Fiber 4.5 g
+Fat 11.9 g
+Cholesterol 0 mg
+Sodium 34.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-spinach-pear-smoothie-healthy-smoothie-41594r</t>
+  </si>
+  <si>
+    <t>Recipe# 41019
+13 Oct 21</t>
+  </si>
+  <si>
+    <t>Oats, Vegetable and Brown Rice Khichdi</t>
+  </si>
+  <si>
+    <t>LUNCH</t>
+  </si>
+  <si>
+    <t>for oats , vegetable and brown rice khichdi 1/2 cup quick cooking rolled oats 3/4 cup brown rice 2 tbsp yellow moong dal  split yellow gram  , washed and drained 2 tsp oil 1/2 cup finely chopped onions 1 tsp garlic  lehsun  paste 1/2 tsp ginger  adrak  paste 1/4 cup chopped french beans 1/4 cup chopped carrot 1/4 cup green peas 1/2 tsp chilli powder 1/2 tsp garam masala 2 tbsp finely chopped coriander  dhania  salt to taste</t>
+  </si>
+  <si>
+    <t>Clean, wash and soak the brown rice in enough water in a deep bowl for 30 minutes. Drain well and keep aside.
+Heat the oil in a pressure cooker, add the onions, garlic paste and ginger paste and sauté on a medium flame for 1 minute.
+Add the french beans, carrot, green peas, chilli powder and garam masala and sauté on a medium flame for 1 minute.
+Add the brown rice, yellow moong dal, oats, coriander and salt, mix well and cook on a medium flame for 2 minutes, while stirring continuously.
+Add 3 cups of hot water, mix well and pressure cook for 7 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 300 cal
+Protein 9.1 g
+Carbohydrates 53.2 g
+Fiber 5.5 g
+Fat 5.6 g
+Cholesterol 0 mg
+Sodium 12.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-vegetable-and-brown-rice-khichdi-41019r</t>
+  </si>
+  <si>
+    <t>Recipe# 22301
+10 Feb 21</t>
+  </si>
+  <si>
+    <t>Mint and Onion Chutney</t>
+  </si>
+  <si>
+    <t>for mint and onion chutney 2 cups chopped mint leaves  phudina  1 cup chopped coriander  dhania  3/4 cup sliced onions 1 tbsp lemon juice 1 tbsp roughly chopped green chillies salt to taste</t>
+  </si>
+  <si>
+    <t>To make mint and onion chutney, combine all the ingredients in a mixer and blend to a smooth paste using very little water.
+Store the mint and onion chutney refrigerated in an air-tight container and use as required.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per tbsp
+Energy 6 cal
+Protein 0.3 g
+Carbohydrates 1 g
+Fiber 0.4 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 1.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mint-and-onion-chutney-22301r</t>
+  </si>
+  <si>
+    <t>Recipe# 22269
+07 Jun 21</t>
+  </si>
+  <si>
+    <t>Buckwheat Pancakes, Kuttu Pancake Diabetic Snacks</t>
+  </si>
+  <si>
+    <t>for buckwheat pancakes 1 cup buckwheat  kuttu or kutti no daro  , washed and drained 1/4 cup sour low fat curds  khatta dahi  1 tsp ginger-green chilli paste 2 tbsp finely chopped coriander  dhania  a pinch of turmeric powder  haldi  a pinch of asafoetida  hing  1/2 cup grated bottle gourd  doodhi / lauki  salt to taste 2 tsp oil for greasing and cooking  for serving with buckwheat pancakes mint and onion chutney</t>
+  </si>
+  <si>
+    <t>Combine the buckwheat and curds with 2 tbsp of water in a deep bowl and mix well. Cover with a lid and keep aside to soak for 1 hour.
+Blend the buckwheat-curds mixture to a coarse mixture without using any water.
+Transfer the coarse mixture into a deep bowl, add the ginger-green chilli paste, coriander, turmeric powder, asafoetida, bottle gourd, salt and 1 tbsp of water and mix well. Keep aside.
+Heat a non-stick tava (griddle) and grease it using 1/8 tsp of oil.
+Pour a ladleful of the batter on it and spread in a circular motion to make 100 mm. (4”) diameter thick circle.
+Cook, using 1/8 tsp of oil, till it turns light brown in colour from both the sides.
+Repeat steps 4 to 6 to make 7 more buckwheat pancakes.
+Serve the buckwheat pancakes immediately with mint and onion chutney.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per pancake
+Energy 71 cal
+Protein 2.1 g
+Carbohydrates 11.9 g
+Fiber 1.7 g
+Fat 1.7 g
+Cholesterol 0 mg
+Sodium 6.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/buckwheat-pancakes-kuttu-pancake-diabetic-snacks-22269r</t>
+  </si>
+  <si>
+    <t>Recipe# 35074
+18 Oct 10</t>
+  </si>
+  <si>
+    <t>Khumbh Palak</t>
+  </si>
+  <si>
+    <t>3 cups sliced mushrooms  khumbh   for the spinach paste 4 cups chopped spinach  palak  1 tsp roughly chopped ginger  adrak  2 tsp roughly chopped green chillies 2 tsp roughly chopped garlic  lehsun   to be ground into a smooth tomato paste 2 cups roughly chopped tomatoes 1 tsp roughly chopped ginger  adrak  2 tsp roughly chopped green chillies 2 tsp roughly chopped garlic  lehsun   other ingredients 2 tsp oil 1 big cardamom  elaichi  1 cardamom  elaichi  1 cup onion paste 1 tsp garam masala salt to taste</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients along with 1 cup of water in a deep non-stick pan, mix well and cook on a medium flame for 6 minutes.
+Cool slightly and blend in a mixer to a smooth paste. Keep aside.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 101 cal
+Protein 3.9 g
+Carbohydrates 14.3 g
+Fiber 4 g
+Fat 3.4 g
+Cholesterol 0 mg
+Sodium 54.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/khumbh-palak-35074r</t>
+  </si>
+  <si>
+    <t>Recipe# 36414
+05 Apr 21</t>
+  </si>
+  <si>
+    <t>Bean Sprouts and Suva Tossed Salad</t>
+  </si>
+  <si>
+    <t>for bean sprouts and suva tossed salad 2 cups bean sprouts 1/4 cup finely chopped dill leaves 1/2 cup chopped tomatoes 1 tbsp lemon juice 1/4 cup chopped basil salt to taste</t>
+  </si>
+  <si>
+    <t>To make bean sprouts and suva tossed salad, combine all the ingredients in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 21 cal
+Protein 1.5 g
+Carbohydrates 4 g
+Fiber 1.3 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 5.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bean-sprouts-and-suva-tossed-salad-36414r</t>
+  </si>
+  <si>
+    <t>Recipe# 39683
+02 Dec 20</t>
+  </si>
+  <si>
+    <t>Cabbage Masala ( Healthy Subzi)</t>
+  </si>
+  <si>
+    <t>4 cups cabbage cubes 1 cup sliced onions 12 mm  1"  piece of ginger  adrak  4 whole dry kashmiri red chillies , broken into pieces 2 cloves  laung / lavang  1 cardamom  elaichi  2 tsp oil 1/4 tsp turmeric powder  haldi  1/2 cup boiled green peas salt to taste</t>
+  </si>
+  <si>
+    <t>Combine the onions, ginger, red chillies, cloves, cardamom and ½ cup of water in a deep non-stick pan, mix well and cook on a medium flame for 5 minutes or till the water evaporates, while stirring occasionally.
+Allow the mixture to cool completely and blend in a mixer to a smooth paste, using 1 tbsp of water. Keep aside.
+Heat the oil in a deep non-stick kadhai and add the prepared paste and turmeric powder and sauté on a medium flame for 1 minute.
+Add the cabbage, green peas and salt, mix well and cook on a medium flame for 5 to 6 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 64 cal
+Protein 2.6 g
+Carbohydrates 7.4 g
+Fiber 3.4 g
+Fat 2.6 g
+Cholesterol 0 mg
+Sodium 13.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-masala---healthy-subzi-39683r</t>
+  </si>
+  <si>
+    <t>Recipe# 7463
+29 Mar 23</t>
+  </si>
+  <si>
+    <t>Gavarfali ki Sukhi Subzi</t>
+  </si>
+  <si>
+    <t>for gavarfali ki sukhi subzi 2 cups cluster beans  gavarfali  , cut into 25 mm. pieces 2 tsp oil 1/2 tsp cumin seeds  jeera  1/2 cup chopped onions 1 tsp garlic  lehsun  paste 1/4 tsp turmeric powder  haldi  salt to taste 2 tsp coriander-cumin seeds  dhania-jeera  powder 1 tsp chilli powder</t>
+  </si>
+  <si>
+    <t>To make gavarfali ki sukhi sabzi, heat the oil in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the onions, garlic paste and turmeric powder and sauté on a medium flame for 2 minutes.
+Add the cluster beans, salt and ½ cup of water and mix well. Cover with a lid and cook on a medium flame for 8 to 10 minutes, while stirring occasionally.
+Add the coriander-cumin seeds powder, chilli powder and 1 tbsp of water, mix well. Cover with a lid and again cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve the gavarfali ki sukhi sabzi hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 52 cal
+Protein 2.5 g
+Carbohydrates 10 g
+Fiber 4.1 g
+Fat 3.6 g
+Cholesterol 0 mg
+Sodium 0.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/gavarfali-ki-sukhi-subzi-7463r</t>
+  </si>
+  <si>
+    <t>Recipe# 39882
+14 Mar 15</t>
+  </si>
+  <si>
+    <t>Papaya, Green Apple and Orange Smoothie</t>
+  </si>
+  <si>
+    <t>3 cups chilled papaya cubes 2 cups chilled green apple cubes  unpeeled  3/4 cup chilled orange segments 2 tbsp honey 1/4 cup low-fat curds  dahi  1/2 tsp vanilla essence 1 cup ice-cubes</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients and blend in a mixer till smooth and frothy.
+Pour equal quantities of the smoothie into 5 individual glasses and serve immediately.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/papaya-green-apple-and-orange-smoothie-39882r</t>
+  </si>
+  <si>
+    <t>Recipe# 39690
+20 Aug 20</t>
+  </si>
+  <si>
+    <t>Cucumber and Mixed Sprouts Subzi</t>
+  </si>
+  <si>
+    <t>2 cups chopped cucumber 1 cup mixed sprouts  moong , chana , matki etc.  2 tsp oil 1 tsp cumin seeds  jeera  a pinch of asafoetida  hing  1/2 tsp turmeric powder  haldi  1 tsp chilli powder 1 tsp coriander-cumin seeds  dhania-jeera  powder salt to taste</t>
+  </si>
+  <si>
+    <t>Heat the oil in a non-stick kadhai and add the cumin seeds and asafoetida.
+When the seeds crackle, add the mixed sprouts, turmeric powder and 1 cup of water and mix well. Cover with a lid and cook on a medium flame for 10 minutes, while stirring occasionally.
+Add the cucumber, chilli powder, coriander-cumin seeds powder and salt and mix well. Cover with a lid and cook on a slow flame for another 4 to 5 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 286 cal
+Protein 11.4 g
+Carbohydrates 34.1 g
+Fiber 14.3 g
+Fat 11.4 g
+Cholesterol 0 mg
+Sodium 34 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cucumber-and-mixed-sprouts-subzi-39690r</t>
+  </si>
+  <si>
+    <t>Recipe# 4685
+19 Nov 20</t>
+  </si>
+  <si>
+    <t>Muskmelon, Apple and Green Grapes Juice</t>
+  </si>
+  <si>
+    <t>juicer method 1 cup muskmelon cubes 1 cup apple cubes 3/4 cup green grapes</t>
+  </si>
+  <si>
+    <t>Add the muskmelon cubes, apple cubes and green grapes a few at a time in the juicer.
+Pour equal quantities of the juice into 2 individual glasses.
+Serve the muskmelon, apple and green grapes juice immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per small glass
+Energy 84 cal
+Protein 0.6 g
+Carbohydrates 19.1 g
+Fiber 3.1 g
+Fat 0.6 g
+Cholesterol 0.1 mg
+Sodium 94.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/muskmelon-apple-and-green-grapes-juice-4685r</t>
+  </si>
+  <si>
+    <t>Recipe# 36832
+18 Aug 20</t>
+  </si>
+  <si>
+    <t>Cucumber Cooler , Muskmelon and Cucumber Juice</t>
+  </si>
+  <si>
+    <t>hopper method 2 cups muskmelon  kharbooja  cubes  deseeded  1 cup cucumber cubes  unpeeled  1/2 tsp lemon juice 2 tbsp finely chopped mint leaves  phudina  salt to taste crushed ice for serving  juicer method 2 cups muskmelon  kharbooja  cubes 1 cup cucumber cubes  unpeeled  1/2 tsp lemon juice 2 tbsp finely chopped mint leaves  phudina  salt to taste crushed ice for serving</t>
+  </si>
+  <si>
+    <t>Add the muskmelon cubes and cucumber cubes a few at a time in the hopper.
+Add the lemon juice, mint leaves and salt and mix well.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per small glass
+Energy 74 cal
+Protein 1.8 g
+Carbohydrates 14.6 g
+Fiber 6.2 g
+Fat 0.8 g
+Cholesterol 0 mg
+Sodium 326.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cucumber-cooler--muskmelon-and-cucumber-juice-36832r</t>
+  </si>
+  <si>
+    <t>Recipe# 6213
+17 Oct 20</t>
+  </si>
+  <si>
+    <t>Apple Magic, Lemony Apple Juice</t>
+  </si>
+  <si>
+    <t>juicer method 3 cups apple cubes 2 tsp lemon juice crushed ice for serving , optional</t>
+  </si>
+  <si>
+    <t>Add the apple cubes a few at a time in the juicer.
+Add the lemon juice and mix well.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve the lemony apple juice immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per small glass
+Energy 108 cal
+Protein 0.4 g
+Carbohydrates 24.4 g
+Fiber 5.7 g
+Fat 1 g
+Cholesterol 0 mg
+Sodium 48.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-magic-lemony-apple-juice-6213r</t>
+  </si>
+  <si>
+    <t>Recipe# 3544
+04 Jul 21</t>
+  </si>
+  <si>
+    <t>Jowar and Vegetable Porridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for jowar and vegetable porridge 1/2 cup coarsely powdered peanuts salt to taste 1 tsp oil 1 cup chopped mixed vegetables  french beans , carrot , and cauliflower  1/2 tsp mustard seeds   rai / sarson  a pinch of asafoetida  hing   for the topping 2 tbsp finely chopped tomatoes 2 tbsp finely chopped onions 2 tbsp finely chopped coriander  dhania </t>
+  </si>
+  <si>
+    <t>Combine the powdered jowar, salt with 3 cups of water in a pressure cooker, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Heat the oil in a deep pan and add the mustard seeds and asafoetida.
+When the mustard seeds crackle, add the mixed vegetables and sauté on a medium flame for 3 to 4 minutes.
+Add the cooked jowar mixture, 1½ cups of water and salt, mix well and simmer for 8 to 10 minutes, while stirring occasionally.
+Top with the tomato, onion and coriander and serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 103 cal
+Protein 3.3 g
+Carbohydrates 18.6 g
+Fiber 3.7 g
+Fat 1.7 g
+Cholesterol 0 mg
+Sodium 11 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-and-vegetable-porridge-3544r</t>
+  </si>
+  <si>
+    <t>Recipe# 41080
+21 Feb 20</t>
+  </si>
+  <si>
+    <t>Tomato Onion Raita, Onion Tomato Raita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for tomato onion raita 3/4 cup chopped tomatoes 1 cup chopped onions 1/2 tsp finely chopped green chillies 1/2 tsp cumin seeds  jeera  powder 2 cups whisked curds  dahi  salt to taste 2 tbsp finely chopped coriander  dhania </t>
+  </si>
+  <si>
+    <t>To make tomato onion raita, combine tomatoes, onions, green chillies and cumin seeds powder in a deep bowl and mix well.
+Add the curds, salt and coriander and mix well.
+Refrigerate the tomato onion raita for at least 1 hour and serve chilled.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 140 cal
+Protein 5 g
+Carbohydrates 9.8 g
+Fiber 0.8 g
+Fat 6.6 g
+Cholesterol 16 mg
+Sodium 25 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tomato-onion-raita-onion-tomato-raita-41080r</t>
+  </si>
+  <si>
+    <t>Recipe# 5701
+20 Oct 20</t>
+  </si>
+  <si>
+    <t>Sprouted Masala Matki</t>
+  </si>
+  <si>
+    <t>for sprouted masala matki 2 cups boiled sprouted matki  moath beans  1 cup fresh tomato pulp salt to taste 2 tsp lemon juice  for the paste 2 tsp oil 5 to 6 whole dry kashmiri red chillies , broken into pieces 1/2 cup sliced onions 1 tbsp poppy seeds  khus-khus  , optional 3 to 4 black peppercorns  kalimirch  3 small sticks cinnamon  dalchini  3 cloves  laung / lavang  1 tsp coriander  dhania  seeds 2 garlic  lehsun  cloves  for the topping 2 tbsp chopped tomatoes 2 tbsp chopped onions 2 tbsp chopped capsicum or cucumber</t>
+  </si>
+  <si>
+    <t>Heat the oil in a broad non-stick pan, add all the ingredients and sauté on a medium flame for 2 to 3 minutes.
+Allow the mixture to cool and blend in a mixer to a smooth paste using little water. Keep aside.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 164 cal
+Protein 9.3 g
+Carbohydrates 24.8 g
+Fiber 3.1 g
+Fat 3.1 g
+Cholesterol 0 mg
+Sodium 19.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouted-masala-matki-5701r</t>
+  </si>
+  <si>
+    <t>Recipe# 39688
+23 Mar 14</t>
+  </si>
+  <si>
+    <t>Mushroom and Green Capsicum Subzi</t>
+  </si>
+  <si>
+    <t>5 cups mushroom  khumbh  halves 1 cup capsicum cubes 2 tsp oil salt to taste  to be blended into a smooth paste  using 1/2 cup of water  4 whole dry kashmiri red chillies , broken into pieces 6 garlic  lehsun  cloves 1/2 cup roughly chopped onions</t>
+  </si>
+  <si>
+    <t>Heat the oil in a broad non-stick pan, add the prepared paste and 2 tbsp of water, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the capsicum cubes, mushrooms and salt and mix well. Cover with a lid and cook on a medium flame for 6 to 8 minutes, while stirring occasionally.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 59 cal
+Protein 2.3 g
+Carbohydrates 7 g
+Fiber 1.9 g
+Fat 3 g
+Cholesterol 0 mg
+Sodium 4.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mushroom-and-green-capsicum-subzi-39688r</t>
+  </si>
+  <si>
+    <t>Recipe# 41018
+04 Jul 22</t>
+  </si>
+  <si>
+    <t>Oats Methi Multiflour Khakhra</t>
+  </si>
+  <si>
+    <t>1/2 cup quick cooking rolled oats 1/2 cup finely chopped fenugreek  methi  leaves 1/4 cup jowar  white millet  flour 1/4 cup ragi  nachni / red millet  flour 1/4 cup whole wheat flour  gehun ka atta  1/4 tsp turmeric powder  haldi  1/4 tsp green chilli paste 1/4 tsp ginger  adrak  paste 1/4 tsp garlic  lehsun  paste 1 tsp oil salt to taste whole wheat flour  gehun ka atta  for rolling 5 tsp ghee or for cooking</t>
+  </si>
+  <si>
+    <t>40 mins</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and knead into a soft dough using enough water.
+Divide the dough into 10 equal portions and roll out each portion into a 150 mm. (6") diameter circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook each khakhra on a slow flame till pink spots appear on both the sides.
+Grease the khakhra with 1/4 tsp oil on each side and continue cooking it on a slow flame, while pressing with a folded muslin cloth or a khakhra press, till it turns crisp and brown from both the sides.
+Cool completely and serve or store in an air-tight container and use as required.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per khakhra
+Energy 73 cal
+Protein 1.6 g
+Carbohydrates 9.2 g
+Fiber 1.6 g
+Fat 3.4 g
+Cholesterol 0 mg
+Sodium 2.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-methi-multiflour-khakhra-41018r</t>
+  </si>
+  <si>
+    <t>Recipe# 35086
+04 Apr 19</t>
+  </si>
+  <si>
+    <t>Apple and Lettuce Salad with Melon Dressing ( Iron Rich Recipe )</t>
+  </si>
+  <si>
+    <t>1/2 cup apple cubes 1 cup iceberg lettuce , torn into pieces 1/2 cup shredded cabbage 1/4 cup thickly grated carrot 1/4 cup capsicum cubes  red and yellow  1/2 cup bean sprouts 1/4 cup green grapes 1 tsp lemon juice salt to taste  to be blended together into a melon dressing 1/2 cup muskmelon purée 1/2 tsp roasted and crushed cumin seeds  jeera  1/4 cup chopped coriander  dhania  salt and freshly ground black pepper  kalimirch  to taste</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients along with the dressing in deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 36 cal
+Protein 1.3 g
+Carbohydrates 7.2 g
+Fiber 1.9 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 49 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-and-lettuce-salad-with-melon-dressing--iron-rich-recipe--35086r</t>
+  </si>
+  <si>
+    <t>Recipe# 6424
+12 Dec 20</t>
+  </si>
+  <si>
+    <t>Masala Cauliflower with Green Peas</t>
+  </si>
+  <si>
+    <t>to be ground into a paste  using 2 tbsp water  2 tsp freshly grated coconut 2 green chillies 25 mm ginger  adrak  2 to 3 garlic  lehsun  cloves  other ingredients for masala cauliflower with green peas 2 cups cauliflower florets 1 1/2 cups green peas 3/4 cup chopped onions 1/2 cup chopped coriander  dhania  1/2 tsp turmeric powder  haldi  2 tsp coriander-cumin seeds  dhania-jeera  powder 1 tsp chilli powder 2 tsp oil salt to taste</t>
+  </si>
+  <si>
+    <t>To mae masala cauliflower with green peas, combine the onions, coriander, turmeric powder, coriander-cumin seeds powder, chilli powder, prepared paste, oil and salt in a deep bowl and mix well to make a marinade.
+Add the cauliflower and green peas to this prepared marinade, mix well and keep aside to marinate for 15 minutes.
+Transfer it into a deep non-stick kadhai, add 1¼ cups of water, cover and cook on a medium flame for 10 to 12 minutes or until the vegetables are tender, while stirring occasionally.
+Serve the masala cauliflower with green peas hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 107 cal
+Protein 5.3 g
+Carbohydrates 13.1 g
+Fiber 6.5 g
+Fat 3.8 g
+Cholesterol 0 mg
+Sodium 26.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masala-cauliflower-with-green-peas-6424r</t>
+  </si>
+  <si>
+    <t>Recipe# 38634
+12 Dec 21</t>
+  </si>
+  <si>
+    <t>Bajra Methi Khakhra, Gluten Free Khakhra</t>
+  </si>
+  <si>
+    <t>for bajra methi khakhra 1 cup bajra  black millet  flour 1/4 cup rice flour  chawal ka atta  1 tsp ginger-garlic  adrak-lehsun  paste 1 tsp green chilli paste 1/2 cup finely chopped fenugreek  methi  leaves 1/4 tsp turmeric powder  haldi  2 tsp oil salt to taste 1/2 tsp oil for kneading bajra  black millet  flour for rolling 1 1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>To make bajra methi khakhra, combine the bajra flour, rice flour, ginger-garlic paste, green chilli paste, fenugreek leaves, turmeric powder, oil and salt in a deep bowl and knead into soft dough using enough warm water. Keep aside for 10 minutes.
+Knead again using oil till the dough is smooth.
+Divide the dough into 6 equal portions and roll out each portion into a thin circle of 125 mm (5") diameter, using a little bajra flour for rolling.
+Heat the tava (griddle) and cook it on a slow flame until pink spots appear on both the sides.
+Cook each khakhra, using 1/4 tsp of oil, on a slow flame by pressing with a folded muslin cloth or a khakhra press till it turns crisp and brown in colour from both sides.
+Serve the bajra methi khakhra immediately or cool and store in an airtight container.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per khakhra
+Energy 98 cal
+Protein 2.3 g
+Carbohydrates 15.5 g
+Fiber 2.2 g
+Fat 2.9 g
+Cholesterol 0 mg
+Sodium 3.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bajra-methi-khakhra-gluten-free-khakhra-38634r</t>
+  </si>
+  <si>
+    <t>Recipe# 6422
+02 Dec 20</t>
+  </si>
+  <si>
+    <t>Tendli Aur Matki Subzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for tendli aur matki subzi 1 cup tendli  ivy gourd  , cut into roundels 1 cup sprouted matki  moath beans  2 tsp oil 1/4 tsp cumin seeds  jeera  1/4 cup chopped onions 1 tsp finely chopped green chillies 1/4 tsp turmeric powder  haldi  1/2 tsp chilli powder 1 1/2 tsp coriander-cumin seeds  dhania-jeera  powder salt to taste 1/4 cup chopped tomatoes 2 tbsp finely chopped coriander  dhania </t>
+  </si>
+  <si>
+    <t>To make tendli aur matki subzi, heat the oil in a non-stick kadhai and add the cumin seeds.
+When the seeds crackle, add the onions and green chillies and sauté on a medium flame for a minute or till the onions turn translucent.
+Add the tendli, matki, turmeric powder, chilli powder, coriander-cumin seeds powder, salt and ½ cup of water and mix well. Cover with a lid and cook on a medium flame for 8 to 10 minutes, while stirring occasionally.
+Add the tomatoes and coriander, mix well and cook for another minute.
+Serve the tendli aur matki subzi hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 64 cal
+Protein 3.6 g
+Carbohydrates 8.5 g
+Fiber 1 g
+Fat 1.9 g
+Cholesterol 0 mg
+Sodium 13.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tendli-aur-matki-subzi-6422r</t>
+  </si>
+  <si>
+    <t>Recipe# 40968
+28 Nov 20</t>
+  </si>
+  <si>
+    <t>Water Chestnuts and Purple Cabbage Stir Fry</t>
+  </si>
+  <si>
+    <t>for water chestnuts and purple cabbage stir fry 2 cups peeled fresh water chestnut  singhada  1 cup shredded red cabbage 2 tsp olive oil 1 tbsp finely chopped garlic  lehsun  salt and to taste  to be mixed into a dressing 1 1/2 tbsp honey 1 1/2 tsp dry red chilli flakes  paprika  1 tsp lemon juice  for the garnish 2 tbsp roasted peanuts</t>
+  </si>
+  <si>
+    <t>Boil enough water in a deep non-stick pan, add the water chestnuts, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Drain well and keep aside.
+Heat the olive oil in a broad non-stick pan, add the garlic and sauté on a medium flame for 30 seconds.
+Add the water chestnuts, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Add the cabbage, prepared dressing, salt and pepper, mix gently and cook on a medium flame for 1 minute, while stirring occasionally.
+Serve immediately garnished with peanuts.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 137 cal
+Protein 3.9 g
+Carbohydrates 24.6 g
+Fiber 2.9 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 4.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/water-chestnuts-and-purple-cabbage-stir-fry-40968r</t>
+  </si>
+  <si>
+    <t>Recipe# 6209
+30 Aug 22</t>
+  </si>
+  <si>
+    <t>Cucumber Melon Juice, How To Make Kharbuja Juice</t>
+  </si>
+  <si>
+    <t>for cucumber melon juice 1 3/4 cups roughly chopped muskmelon  kharbooja  1 3/4 cups roughly chopped cucumber 12 ice-cubes</t>
+  </si>
+  <si>
+    <t>To make cucumber melon juice, combine all the ingredients in a high quality mixer like vitamix and blend till smooth.
+Pour the cucumber melon juice into 3 individual glasses and serve immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per glass
+Energy 24 cal
+Protein 0.6 g
+Carbohydrates 4.9 g
+Fiber 2.6 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 98.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cucumber-melon-juice-how-to-make-kharbuja-juice-6209r</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +3633,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:CY13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1561,6 +3783,192 @@
       <c r="AO3" t="s" s="0">
         <v>246</v>
       </c>
+      <c r="AP3" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="AQ3" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="AR3" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="AS3" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="AT3" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="AU3" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="AV3" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="AW3" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="AX3" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="AY3" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="AZ3" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="BA3" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="BB3" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="BC3" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="BD3" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="BE3" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="BF3" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="BG3" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="BH3" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="BI3" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="BJ3" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="BK3" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="BL3" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="BM3" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="BN3" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="BO3" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="BP3" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="BQ3" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="BR3" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="BS3" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="BT3" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="BU3" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="BV3" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="BW3" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="BX3" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="BY3" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="BZ3" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="CA3" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="CB3" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="CC3" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="CD3" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="CE3" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="CF3" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="CG3" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="CH3" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="CI3" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="CJ3" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="CK3" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="CL3" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="CM3" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="CN3" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="CO3" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="CP3" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="CQ3" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="CR3" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="CS3" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="CT3" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="CU3" t="s" s="0">
+        <v>648</v>
+      </c>
+      <c r="CV3" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="CW3" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="CX3" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="CY3" t="s" s="0">
+        <v>672</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
@@ -1686,6 +4094,192 @@
       <c r="AO4" t="s" s="0">
         <v>247</v>
       </c>
+      <c r="AP4" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="AQ4" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="AR4" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="AS4" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="AT4" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="AU4" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="AV4" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="AW4" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="AX4" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="AY4" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="AZ4" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="BA4" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="BB4" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="BC4" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="BD4" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="BE4" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="BF4" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="BG4" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="BH4" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="BI4" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="BJ4" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="BK4" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="BL4" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="BM4" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="BN4" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="BO4" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="BP4" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="BQ4" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="BR4" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="BS4" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="BT4" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="BU4" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="BV4" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="BW4" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="BX4" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="BY4" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="BZ4" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="CA4" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="CB4" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="CC4" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="CD4" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="CE4" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="CF4" t="s" s="0">
+        <v>558</v>
+      </c>
+      <c r="CG4" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="CH4" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="CI4" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="CJ4" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="CK4" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="CL4" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="CM4" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="CN4" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="CO4" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="CP4" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="CQ4" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="CR4" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="CS4" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="CT4" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="CU4" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="CV4" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="CW4" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="CX4" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="CY4" t="s" s="0">
+        <v>673</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
@@ -1811,6 +4405,192 @@
       <c r="AO5" t="s" s="0">
         <v>36</v>
       </c>
+      <c r="AP5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AQ5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AR5" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="AS5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="AT5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AU5" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="AV5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AW5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AX5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AY5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="AZ5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BA5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BB5" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="BC5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BD5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BE5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BF5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BG5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BH5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BI5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BJ5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BK5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="BL5" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="BM5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BN5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BO5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BP5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BQ5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BR5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BS5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BT5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BU5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="BV5" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="BW5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BX5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="BY5" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="BZ5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CA5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="CB5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CC5" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="CD5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CE5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="CF5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CG5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CH5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CI5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CJ5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CK5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CL5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CM5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CN5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CO5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="CP5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CQ5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CR5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CS5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="CT5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CU5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CV5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="CW5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CX5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CY5" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
@@ -1936,6 +4716,192 @@
       <c r="AO6" t="s" s="0">
         <v>26</v>
       </c>
+      <c r="AP6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AR6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AS6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AT6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AU6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AV6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AW6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="AX6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AY6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BA6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BB6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BC6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BD6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BE6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="BF6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BG6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BH6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BI6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BJ6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BK6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BL6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BM6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BN6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BO6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BP6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BQ6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BR6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BS6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BT6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BU6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BV6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BW6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BX6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BY6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BZ6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CA6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CB6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CC6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CD6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CE6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CF6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CG6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CH6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CI6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CJ6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="CK6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CL6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CM6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CN6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CO6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CP6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CQ6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CR6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CS6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="CT6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CU6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CV6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CW6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CX6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="CY6" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
@@ -2061,6 +5027,192 @@
       <c r="AO7" t="s" s="0">
         <v>248</v>
       </c>
+      <c r="AP7" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="AQ7" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="AR7" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="AS7" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="AT7" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="AU7" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="AV7" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="AW7" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="AX7" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="AY7" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="AZ7" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="BA7" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="BB7" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="BC7" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="BD7" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="BE7" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="BF7" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="BG7" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="BH7" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="BI7" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="BJ7" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="BK7" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="BL7" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="BM7" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="BN7" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="BO7" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="BP7" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="BQ7" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="BR7" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="BS7" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="BT7" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="BU7" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="BV7" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="BW7" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="BX7" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="BY7" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="BZ7" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="CA7" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="CB7" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="CC7" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="CD7" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="CE7" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="CF7" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="CG7" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="CH7" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="CI7" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="CJ7" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="CK7" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="CL7" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="CM7" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="CN7" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="CO7" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="CP7" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="CQ7" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="CR7" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="CS7" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="CT7" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="CU7" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="CV7" t="s" s="0">
+        <v>656</v>
+      </c>
+      <c r="CW7" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="CX7" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="CY7" t="s" s="0">
+        <v>674</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
@@ -2136,34 +5288,34 @@
         <v>28</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="AA8" t="s" s="0">
         <v>28</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD8" t="s" s="0">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="AE8" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="s" s="0">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH8" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="s" s="0">
         <v>28</v>
@@ -2172,19 +5324,205 @@
         <v>28</v>
       </c>
       <c r="AK8" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="AL8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="AM8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AO8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="AP8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AS8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AT8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="AU8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AV8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AW8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AX8" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL8" t="s" s="0">
+      <c r="AY8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="AZ8" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AM8" t="s" s="0">
+      <c r="BA8" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AN8" t="s" s="0">
+      <c r="BB8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BC8" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AO8" t="s" s="0">
+      <c r="BD8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BE8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BF8" t="s" s="0">
         <v>28</v>
+      </c>
+      <c r="BG8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BH8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BI8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BJ8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="BK8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="BL8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="BM8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="BN8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="BO8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="BP8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BQ8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="BR8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BS8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="BT8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BU8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BV8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BW8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BX8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BY8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BZ8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="CA8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="CB8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="CC8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="CD8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="CE8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="CF8" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="CG8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="CH8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="CI8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="CJ8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="CK8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="CL8" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="CM8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="CN8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="CO8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="CP8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="CQ8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="CR8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="CS8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="CT8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="CU8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="CV8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="CW8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="CX8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="CY8" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -2258,58 +5596,244 @@
         <v>169</v>
       </c>
       <c r="X9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="Y9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="Z9" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="AA9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="AB9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="AC9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="AD9" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="AE9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="AF9" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="AG9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="AH9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="AI9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="AJ9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="AK9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="AL9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="AM9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AN9" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="AO9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AP9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AQ9" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="AR9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AS9" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="Y9" t="s" s="0">
+      <c r="AT9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="AU9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="AV9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AW9" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="AX9" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="AY9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AZ9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BA9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="BB9" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="BC9" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="BD9" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="BE9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BF9" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="BG9" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="Z9" t="s" s="0">
+      <c r="BH9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="BI9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BJ9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="BK9" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="BL9" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="BM9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BN9" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="BO9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="BP9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BQ9" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="BR9" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="BS9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BT9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BU9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="BV9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="BW9" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="AA9" t="s" s="0">
+      <c r="BX9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="BY9" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="AB9" t="s" s="0">
+      <c r="BZ9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="CA9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="CB9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="CC9" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="CD9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="CE9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="CF9" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="CG9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="CH9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="CI9" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="CJ9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="CK9" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="CL9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="CM9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="CN9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="CO9" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="CP9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="CQ9" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="CR9" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="AC9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="AD9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="AE9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="AF9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="AG9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="AH9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="AI9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="AJ9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="AK9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="AO9" t="s" s="0">
-        <v>29</v>
+      <c r="CS9" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="CT9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="CU9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="CV9" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="CW9" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="CX9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="CY9" t="s" s="0">
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -2383,58 +5907,244 @@
         <v>170</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="AD10" t="s" s="0">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="AE10" t="s" s="0">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="AF10" t="s" s="0">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="AG10" t="s" s="0">
-        <v>30</v>
+        <v>277</v>
       </c>
       <c r="AH10" t="s" s="0">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="AI10" t="s" s="0">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="AJ10" t="s" s="0">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="AK10" t="s" s="0">
-        <v>30</v>
+        <v>285</v>
       </c>
       <c r="AL10" t="s" s="0">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c r="AM10" t="s" s="0">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="AN10" t="s" s="0">
-        <v>30</v>
+        <v>291</v>
       </c>
       <c r="AO10" t="s" s="0">
-        <v>30</v>
+        <v>293</v>
+      </c>
+      <c r="AP10" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="AQ10" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="AR10" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="AS10" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="AT10" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="AU10" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="AV10" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="AW10" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="AX10" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="AY10" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="AZ10" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="BA10" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="BB10" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="BC10" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="BD10" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="BE10" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="BF10" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="BG10" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="BH10" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="BI10" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="BJ10" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="BK10" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="BL10" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="BM10" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="BN10" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="BO10" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="BP10" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="BQ10" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="BR10" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="BS10" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="BT10" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="BU10" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="BV10" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="BW10" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="BX10" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="BY10" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="BZ10" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="CA10" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="CB10" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="CC10" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="CD10" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="CE10" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="CF10" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="CG10" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="CH10" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="CI10" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="CJ10" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="CK10" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="CL10" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="CM10" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="CN10" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="CO10" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="CP10" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="CQ10" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="CR10" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="CS10" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="CT10" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="CU10" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="CV10" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="CW10" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="CX10" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="CY10" t="s" s="0">
+        <v>675</v>
       </c>
     </row>
     <row r="11">
@@ -2508,58 +6218,244 @@
         <v>171</v>
       </c>
       <c r="X11" t="s" s="0">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="Y11" t="s" s="0">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="Z11" t="s" s="0">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="AA11" t="s" s="0">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="AB11" t="s" s="0">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="AC11" t="s" s="0">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="AD11" t="s" s="0">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="AE11" t="s" s="0">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="AF11" t="s" s="0">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="AG11" t="s" s="0">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="AH11" t="s" s="0">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="AI11" t="s" s="0">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="AJ11" t="s" s="0">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="AK11" t="s" s="0">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="AL11" t="s" s="0">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="AM11" t="s" s="0">
-        <v>31</v>
+        <v>290</v>
       </c>
       <c r="AN11" t="s" s="0">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="AO11" t="s" s="0">
-        <v>31</v>
+        <v>294</v>
+      </c>
+      <c r="AP11" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="AQ11" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="AR11" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="AS11" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="AT11" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="AU11" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="AV11" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="AW11" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="AX11" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="AY11" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="AZ11" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="BA11" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="BB11" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="BC11" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="BD11" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="BE11" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="BF11" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="BG11" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="BH11" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="BI11" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="BJ11" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="BK11" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="BL11" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="BM11" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="BN11" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="BO11" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="BP11" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="BQ11" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="BR11" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="BS11" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="BT11" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="BU11" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="BV11" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="BW11" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="BX11" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="BY11" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="BZ11" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="CA11" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="CB11" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="CC11" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="CD11" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="CE11" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="CF11" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="CG11" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="CH11" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="CI11" t="s" s="0">
+        <v>579</v>
+      </c>
+      <c r="CJ11" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="CK11" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="CL11" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="CM11" t="s" s="0">
+        <v>603</v>
+      </c>
+      <c r="CN11" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="CO11" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="CP11" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="CQ11" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="CR11" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="CS11" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="CT11" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="CU11" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="CV11" t="s" s="0">
+        <v>658</v>
+      </c>
+      <c r="CW11" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="CX11" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="CY11" t="s" s="0">
+        <v>676</v>
       </c>
     </row>
     <row r="12">
@@ -2686,6 +6582,192 @@
       <c r="AO12" t="s" s="0">
         <v>32</v>
       </c>
+      <c r="AP12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AQ12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AR12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AS12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AT12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AU12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AV12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AW12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AX12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AY12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AZ12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BA12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BB12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BC12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BD12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BE12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BF12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BG12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BH12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BI12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BJ12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BK12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BL12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BM12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BN12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BO12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BP12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BQ12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BR12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BS12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BT12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BU12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BV12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BW12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BX12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BY12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BZ12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CA12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CB12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CC12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CD12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CE12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CF12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CG12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CH12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CI12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CJ12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CK12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CL12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CM12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CN12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CO12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CP12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CQ12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CR12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CS12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CT12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CU12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CV12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CW12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CX12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CY12" t="s" s="0">
+        <v>32</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
@@ -2810,6 +6892,190 @@
       </c>
       <c r="AO13" t="s" s="0">
         <v>249</v>
+      </c>
+      <c r="AP13" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="AQ13" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="AR13" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="AS13" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="AT13" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="AU13" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="AV13" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="AW13" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="AX13" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="AY13" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="AZ13" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="BA13" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="BB13" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="BC13" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="BD13" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="BE13" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="BF13" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="BG13" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="BH13" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="BI13" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="BJ13" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="BK13" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="BL13" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="BM13" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="BN13" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="BO13" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="BP13" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="BQ13" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="BR13" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="BS13" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="BT13" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="BU13" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="BV13" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="BW13" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="BX13" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="BY13" t="s" s="0">
+        <v>519</v>
+      </c>
+      <c r="BZ13" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="CA13" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="CB13" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="CC13" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="CD13" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="CE13" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="CF13" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="CG13" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="CH13" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="CI13" t="s" s="0">
+        <v>580</v>
+      </c>
+      <c r="CJ13" s="0"/>
+      <c r="CK13" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="CL13" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="CM13" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="CN13" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="CO13" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="CP13" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="CQ13" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="CR13" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="CS13" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="CT13" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="CU13" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="CV13" t="s" s="0">
+        <v>659</v>
+      </c>
+      <c r="CW13" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="CX13" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="CY13" t="s" s="0">
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +7091,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2887,34 +7153,82 @@
         <v>102</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>250</v>
+        <v>320</v>
+      </c>
+      <c r="Q3" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="R3" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="S3" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="T3" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="U3" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="V3" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="W3" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="X3" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="Y3" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="Z3" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="AA3" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB3" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="AC3" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="AD3" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="AE3" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="AF3" t="s" s="0">
+        <v>648</v>
       </c>
     </row>
     <row r="4">
@@ -2937,34 +7251,82 @@
         <v>103</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>251</v>
+        <v>321</v>
+      </c>
+      <c r="Q4" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="R4" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="S4" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="T4" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="U4" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="V4" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="W4" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="X4" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="Y4" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="Z4" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="AA4" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="AB4" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="AC4" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="AD4" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="AE4" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="AF4" t="s" s="0">
+        <v>649</v>
       </c>
     </row>
     <row r="5">
@@ -2990,30 +7352,78 @@
         <v>36</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="J5" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s" s="0">
-        <v>36</v>
-      </c>
       <c r="O5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="P5" t="s" s="0">
+      <c r="X5" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="Y5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="Z5" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="AA5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AC5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AD5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="AE5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AF5" t="s" s="0">
         <v>36</v>
       </c>
     </row>
@@ -3064,7 +7474,55 @@
         <v>26</v>
       </c>
       <c r="P6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="Q6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="R6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="S6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="T6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="U6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="V6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="W6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="X6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="Y6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="Z6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AA6" t="s" s="0">
         <v>69</v>
+      </c>
+      <c r="AB6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AD6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AE6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -3087,34 +7545,82 @@
         <v>104</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>252</v>
+        <v>322</v>
+      </c>
+      <c r="Q7" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="R7" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="S7" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="T7" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="U7" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="V7" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="W7" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="X7" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="Y7" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="Z7" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="AA7" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="AB7" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="AC7" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="AD7" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="AE7" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="AF7" t="s" s="0">
+        <v>650</v>
       </c>
     </row>
     <row r="8">
@@ -3137,19 +7643,19 @@
         <v>106</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s" s="0">
         <v>28</v>
@@ -3158,12 +7664,60 @@
         <v>28</v>
       </c>
       <c r="N8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="Q8" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="O8" t="s" s="0">
+      <c r="R8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="S8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="U8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="V8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="W8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="X8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Y8" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="P8" t="s" s="0">
+      <c r="Z8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="AA8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="AC8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AD8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AE8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AF8" t="s" s="0">
         <v>28</v>
       </c>
     </row>
@@ -3187,34 +7741,82 @@
         <v>106</v>
       </c>
       <c r="G9" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="N9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="Q9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="R9" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="H9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="L9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="N9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="O9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="P9" t="s" s="0">
-        <v>29</v>
+      <c r="S9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="T9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="U9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="V9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="W9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="Y9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="Z9" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="AA9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="AB9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="AC9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="AD9" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="AE9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="AF9" t="s" s="0">
+        <v>264</v>
       </c>
     </row>
     <row r="10">
@@ -3237,34 +7839,82 @@
         <v>146</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>30</v>
+        <v>277</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>30</v>
+        <v>298</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>30</v>
+        <v>323</v>
+      </c>
+      <c r="Q10" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="R10" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="S10" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="T10" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="U10" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="V10" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="W10" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="X10" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="Y10" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="Z10" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="AA10" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="AB10" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="AC10" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="AD10" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="AE10" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="AF10" t="s" s="0">
+        <v>651</v>
       </c>
     </row>
     <row r="11">
@@ -3287,34 +7937,82 @@
         <v>147</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="N11" t="s" s="0">
-        <v>31</v>
+        <v>290</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>31</v>
+        <v>299</v>
       </c>
       <c r="P11" t="s" s="0">
-        <v>31</v>
+        <v>324</v>
+      </c>
+      <c r="Q11" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="R11" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="S11" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="T11" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="U11" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="V11" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="W11" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="X11" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="Y11" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="Z11" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="AA11" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="AB11" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="AC11" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="AD11" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="AE11" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="AF11" t="s" s="0">
+        <v>652</v>
       </c>
     </row>
     <row r="12">
@@ -3366,6 +8064,54 @@
       <c r="P12" t="s" s="0">
         <v>32</v>
       </c>
+      <c r="Q12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="S12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="T12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="U12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="V12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="W12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="X12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="Y12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="Z12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AA12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AB12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AC12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AD12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AE12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AF12" t="s" s="0">
+        <v>32</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
@@ -3387,34 +8133,82 @@
         <v>105</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M13" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N13" t="s" s="0">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="P13" t="s" s="0">
-        <v>253</v>
+        <v>325</v>
+      </c>
+      <c r="Q13" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="R13" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="S13" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="T13" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="U13" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="V13" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="W13" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="X13" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="Y13" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="Z13" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="AA13" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="AB13" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="AC13" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="AD13" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="AE13" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="AF13" t="s" s="0">
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/TarlaDalal_Scraping_Project/src/test/resources/PCOS_Eliminated_ToAdd_Allergy_Recipe_Details.xlsx
+++ b/TarlaDalal_Scraping_Project/src/test/resources/PCOS_Eliminated_ToAdd_Allergy_Recipe_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24224" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52687" uniqueCount="678">
   <si>
     <t xml:space="preserve">                                                                                                                               PCOS_Eliminated_Recipe_Data</t>
   </si>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>23</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>24</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>25</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>26</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>27</v>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>28</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>29</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>30</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>31</v>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>32</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>33</v>
@@ -8224,7 +8224,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:CA13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8264,58 +8264,2629 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
+      <c r="A3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="O3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="P3" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="Q3" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="R3" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="S3" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="T3" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="U3" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="V3" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="W3" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="X3" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="Y3" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="Z3" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="AA3" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="AB3" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="AC3" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="AD3" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="AE3" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="AF3" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="AG3" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="AH3" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AI3" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="AJ3" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="AK3" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="AL3" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="AM3" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="AN3" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="AO3" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="AP3" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="AQ3" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="AR3" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="AS3" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="AT3" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="AU3" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="AV3" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="AW3" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="AX3" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="AY3" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="AZ3" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="BA3" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="BB3" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="BC3" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="BD3" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="BE3" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="BF3" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="BG3" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="BH3" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="BI3" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="BJ3" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="BK3" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="BL3" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="BM3" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="BN3" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="BO3" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="BP3" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="BQ3" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="BR3" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="BS3" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="BT3" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="BU3" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="BV3" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="BW3" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="BX3" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="BY3" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="BZ3" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="CA3" t="s" s="0">
+        <v>593</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
+      <c r="A4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="O4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="P4" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="Q4" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="R4" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="S4" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="T4" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="U4" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="V4" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="W4" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="X4" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="Y4" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="Z4" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="AA4" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="AB4" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="AC4" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="AD4" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="AE4" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="AF4" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="AG4" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="AH4" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="AI4" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="AJ4" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="AK4" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="AL4" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="AM4" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="AN4" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="AO4" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="AP4" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="AQ4" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="AR4" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="AS4" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="AT4" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="AU4" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="AV4" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="AW4" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="AX4" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="AY4" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="AZ4" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="BA4" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="BB4" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="BC4" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="BD4" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="BE4" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="BF4" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="BG4" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="BH4" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="BI4" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="BJ4" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="BK4" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="BL4" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="BM4" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="BN4" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="BO4" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="BP4" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="BQ4" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="BR4" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="BS4" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="BT4" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="BU4" t="s" s="0">
+        <v>558</v>
+      </c>
+      <c r="BV4" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="BW4" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="BX4" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="BY4" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="BZ4" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="CA4" t="s" s="0">
+        <v>594</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
+      <c r="A5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="P5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="V5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="X5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="Y5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="Z5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="AA5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AC5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AD5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AE5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AF5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AG5" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="AH5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="AI5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AJ5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AK5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AL5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AM5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="AN5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AO5" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="AP5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AQ5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AR5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="AS5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AT5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AU5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AV5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AW5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AX5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AY5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AZ5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BA5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BB5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="BC5" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="BD5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BE5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BF5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BG5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BH5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BI5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BJ5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BK5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="BL5" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="BM5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BN5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="BO5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BP5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="BQ5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BR5" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="BS5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BT5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="BU5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BV5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BW5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BX5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BY5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BZ5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CA5" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
+      <c r="A6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="Q6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="R6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="S6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="T6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="U6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="V6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="W6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="X6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="Y6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="Z6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AA6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AB6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AD6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="AE6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AG6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AH6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AI6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="AJ6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AK6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AN6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AO6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AP6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="AQ6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AR6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AS6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AT6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AU6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AV6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AW6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="AX6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AY6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BA6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BB6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BC6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BD6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BE6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BF6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BG6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BH6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BI6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BJ6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BK6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BL6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BM6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BN6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BO6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BP6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BQ6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BR6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BS6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BT6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BU6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BV6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BW6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BX6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="BY6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="BZ6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="CA6" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s" s="0">
         <v>5</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="N7" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="P7" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="Q7" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="R7" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="S7" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="T7" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="U7" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="V7" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="W7" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="X7" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="Y7" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="Z7" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="AA7" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="AB7" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="AC7" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="AD7" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="AE7" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="AF7" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="AG7" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="AH7" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="AI7" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="AJ7" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="AK7" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="AL7" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="AM7" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="AN7" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="AO7" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="AP7" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="AQ7" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="AR7" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="AS7" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="AT7" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="AU7" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="AV7" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="AW7" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="AX7" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="AY7" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="AZ7" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="BA7" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="BB7" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="BC7" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="BD7" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="BE7" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="BF7" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="BG7" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="BH7" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="BI7" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="BJ7" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="BK7" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="BL7" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="BM7" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="BN7" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="BO7" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="BP7" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="BQ7" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="BR7" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="BS7" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="BT7" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="BU7" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="BV7" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="BW7" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="BX7" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="BY7" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="BZ7" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="CA7" t="s" s="0">
+        <v>595</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
+      <c r="A8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="Q8" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="R8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="S8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="U8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="V8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="W8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Y8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Z8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="AC8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AD8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AE8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AF8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AG8" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="AH8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AI8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AJ8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="AK8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="AO8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AP8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AR8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="AS8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AT8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AU8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AV8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AW8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AX8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AY8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BA8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="BB8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="BC8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="BD8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="BE8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="BF8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BG8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="BH8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BI8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="BJ8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BK8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BL8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BM8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BN8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BO8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BP8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BQ8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="BR8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="BS8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="BT8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BU8" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="BV8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BW8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BX8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BY8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BZ8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="CA8" t="s" s="0">
+        <v>129</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
+      <c r="A9" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="N9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="P9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="Q9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="R9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="S9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="T9" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="U9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="V9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="W9" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="X9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="Z9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="AA9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="AB9" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="AC9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="AD9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="AE9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="AF9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="AG9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="AH9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AI9" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="AJ9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AK9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AL9" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="AM9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="AO9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="AP9" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="AQ9" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="AR9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AS9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="AT9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="AU9" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="AV9" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="AW9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="AX9" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="AY9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="AZ9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BA9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="BB9" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="BC9" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="BD9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BE9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="BF9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BG9" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="BH9" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="BI9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BJ9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BK9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="BL9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="BM9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="BN9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="BO9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BP9" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="BQ9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BR9" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="BS9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BT9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="BU9" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="BV9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BW9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="BX9" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="BY9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="BZ9" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="CA9" t="s" s="0">
+        <v>117</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
+      <c r="A10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="N10" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="O10" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="P10" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="Q10" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="R10" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="S10" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="T10" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="U10" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="V10" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="W10" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="X10" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="Y10" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="Z10" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="AA10" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="AB10" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="AC10" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="AD10" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="AE10" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="AF10" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="AG10" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="AH10" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="AI10" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="AJ10" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="AK10" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="AL10" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="AM10" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="AN10" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="AO10" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="AP10" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="AQ10" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="AR10" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="AS10" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="AT10" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="AU10" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="AV10" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="AW10" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="AX10" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="AY10" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="AZ10" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="BA10" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="BB10" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="BC10" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="BD10" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="BE10" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="BF10" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="BG10" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="BH10" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="BI10" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="BJ10" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="BK10" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="BL10" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="BM10" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="BN10" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="BO10" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="BP10" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="BQ10" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="BR10" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="BS10" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="BT10" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="BU10" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="BV10" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="BW10" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="BX10" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="BY10" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="BZ10" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="CA10" t="s" s="0">
+        <v>596</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
+      <c r="A11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="N11" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="O11" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="P11" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="Q11" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="R11" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="S11" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="T11" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="U11" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="V11" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="W11" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="X11" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="Y11" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="Z11" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="AA11" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="AB11" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="AC11" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="AD11" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="AE11" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="AF11" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="AG11" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="AH11" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="AI11" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="AJ11" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="AK11" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="AL11" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="AM11" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="AN11" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="AO11" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="AP11" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="AQ11" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="AR11" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="AS11" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="AT11" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="AU11" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="AV11" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="AW11" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="AX11" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="AY11" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="AZ11" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="BA11" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="BB11" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="BC11" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="BD11" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="BE11" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="BF11" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="BG11" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="BH11" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="BI11" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="BJ11" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="BK11" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="BL11" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="BM11" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="BN11" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="BO11" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="BP11" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="BQ11" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="BR11" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="BS11" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="BT11" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="BU11" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="BV11" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="BW11" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="BX11" t="s" s="0">
+        <v>579</v>
+      </c>
+      <c r="BZ11" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="CA11" t="s" s="0">
+        <v>597</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
+      <c r="A12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="S12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="T12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="U12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="V12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="W12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="X12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="Y12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="Z12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AA12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AB12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AC12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AD12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AE12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AF12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AG12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AH12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AI12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AJ12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AK12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AL12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AM12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AN12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AO12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AP12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AQ12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AR12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AS12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AT12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AU12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AV12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AW12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AX12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AY12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AZ12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BA12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BB12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BC12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BD12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BE12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BF12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BG12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BH12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BI12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BJ12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BK12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BL12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BM12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BN12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BO12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BP12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BQ12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BR12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BS12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BT12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BU12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BV12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BW12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BX12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BY12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="BZ12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="CA12" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="N13" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="O13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="P13" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="Q13" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="R13" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="S13" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="T13" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="U13" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="V13" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="W13" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="X13" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="Y13" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="Z13" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="AA13" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="AB13" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="AC13" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="AD13" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="AE13" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="AF13" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="AG13" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AH13" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="AI13" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="AJ13" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="AK13" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="AL13" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="AM13" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="AN13" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="AO13" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="AP13" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="AQ13" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="AR13" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="AS13" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="AT13" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="AU13" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="AV13" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="AW13" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="AX13" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="AY13" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="AZ13" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="BA13" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="BB13" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="BC13" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="BD13" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="BE13" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="BF13" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="BG13" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="BH13" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="BI13" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="BJ13" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="BK13" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="BL13" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="BM13" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="BN13" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="BO13" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="BP13" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="BQ13" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="BR13" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="BS13" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="BT13" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="BU13" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="BV13" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="BW13" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="BX13" t="s" s="0">
+        <v>580</v>
+      </c>
+      <c r="BY13" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="BZ13" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="CA13" t="s" s="0">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
